--- a/20240927_donnees_metaboliques_philippe.xlsx
+++ b/20240927_donnees_metaboliques_philippe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/EXTENSION_MACMI/Analyses R/rstudio_repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD7F6C4-F84E-E14C-9BB2-4A5441ED08FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D074CA-FF53-E143-B030-901169CDFAA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{3D092A26-FE55-1744-B6A5-1D00EECDD271}"/>
+    <workbookView xWindow="38400" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{3D092A26-FE55-1744-B6A5-1D00EECDD271}"/>
   </bookViews>
   <sheets>
     <sheet name="foie" sheetId="1" r:id="rId1"/>
@@ -75,9 +75,6 @@
     <t>tep_2_mtv1</t>
   </si>
   <si>
-    <t>tep_2_mtv_2</t>
-  </si>
-  <si>
     <t>mtv_tep4_tep0</t>
   </si>
   <si>
@@ -100,6 +97,9 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>tep_2_mtv2</t>
   </si>
 </sst>
 </file>
@@ -568,7 +568,7 @@
   <dimension ref="A1:N85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="F14" activeCellId="1" sqref="L1 F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -591,7 +591,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -624,13 +624,13 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
       <c r="N1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -647,11 +647,11 @@
         <v>14.02</v>
       </c>
       <c r="E2" s="1">
-        <f>(L2-D2)/D2</f>
+        <f t="shared" ref="E2:E33" si="0">(L2-D2)/D2</f>
         <v>-0.99928673323823114</v>
       </c>
       <c r="F2" s="1">
-        <f>(I2-L2)/L2</f>
+        <f t="shared" ref="F2:F33" si="1">(I2-L2)/L2</f>
         <v>0</v>
       </c>
       <c r="G2" s="2">
@@ -673,11 +673,11 @@
         <v>0.01</v>
       </c>
       <c r="M2" s="1">
-        <f>(I2-D2)/D2</f>
+        <f t="shared" ref="M2:M33" si="2">(I2-D2)/D2</f>
         <v>-0.99928673323823114</v>
       </c>
       <c r="N2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -694,11 +694,11 @@
         <v>2.11</v>
       </c>
       <c r="E3" s="1">
-        <f>(L3-D3)/D3</f>
+        <f t="shared" si="0"/>
         <v>-0.99526066350710907</v>
       </c>
       <c r="F3" s="1">
-        <f>(I3-L3)/L3</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G3" s="2">
@@ -720,11 +720,11 @@
         <v>0.01</v>
       </c>
       <c r="M3" s="1">
-        <f>(I3-D3)/D3</f>
+        <f t="shared" si="2"/>
         <v>-0.99526066350710907</v>
       </c>
       <c r="N3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -741,11 +741,11 @@
         <v>3.27</v>
       </c>
       <c r="E4" s="1">
-        <f>(L4-D4)/D4</f>
+        <f t="shared" si="0"/>
         <v>-0.99694189602446492</v>
       </c>
       <c r="F4" s="1">
-        <f>(I4-L4)/L4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G4" s="2">
@@ -767,11 +767,11 @@
         <v>0.01</v>
       </c>
       <c r="M4" s="1">
-        <f>(I4-D4)/D4</f>
+        <f t="shared" si="2"/>
         <v>-0.99694189602446492</v>
       </c>
       <c r="N4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -788,11 +788,11 @@
         <v>8.81</v>
       </c>
       <c r="E5" s="1">
-        <f>(L5-D5)/D5</f>
+        <f t="shared" si="0"/>
         <v>-0.99886492622020429</v>
       </c>
       <c r="F5" s="1">
-        <f>(I5-L5)/L5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G5" s="2">
@@ -814,11 +814,11 @@
         <v>0.01</v>
       </c>
       <c r="M5" s="1">
-        <f>(I5-D5)/D5</f>
+        <f t="shared" si="2"/>
         <v>-0.99886492622020429</v>
       </c>
       <c r="N5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -835,11 +835,11 @@
         <v>9.8699999999999992</v>
       </c>
       <c r="E6" s="1">
-        <f>(L6-D6)/D6</f>
+        <f t="shared" si="0"/>
         <v>-0.99898682877406286</v>
       </c>
       <c r="F6" s="1">
-        <f>(I6-L6)/L6</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G6" s="2">
@@ -861,11 +861,11 @@
         <v>0.01</v>
       </c>
       <c r="M6" s="1">
-        <f>(I6-D6)/D6</f>
+        <f t="shared" si="2"/>
         <v>-0.99898682877406286</v>
       </c>
       <c r="N6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -882,11 +882,11 @@
         <v>1.79</v>
       </c>
       <c r="E7" s="1">
-        <f>(L7-D7)/D7</f>
+        <f t="shared" si="0"/>
         <v>-0.56983240223463683</v>
       </c>
       <c r="F7" s="1">
-        <f>(I7-L7)/L7</f>
+        <f t="shared" si="1"/>
         <v>-0.98701298701298701</v>
       </c>
       <c r="G7" s="2">
@@ -908,11 +908,11 @@
         <v>0.77</v>
       </c>
       <c r="M7" s="1">
-        <f>(I7-D7)/D7</f>
+        <f t="shared" si="2"/>
         <v>-0.994413407821229</v>
       </c>
       <c r="N7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -929,11 +929,11 @@
         <v>1.42</v>
       </c>
       <c r="E8" s="1">
-        <f>(L8-D8)/D8</f>
+        <f t="shared" si="0"/>
         <v>-0.49295774647887325</v>
       </c>
       <c r="F8" s="1">
-        <f>(I8-L8)/L8</f>
+        <f t="shared" si="1"/>
         <v>-0.98611111111111105</v>
       </c>
       <c r="G8" s="2">
@@ -955,11 +955,11 @@
         <v>0.72</v>
       </c>
       <c r="M8" s="1">
-        <f>(I8-D8)/D8</f>
+        <f t="shared" si="2"/>
         <v>-0.99295774647887325</v>
       </c>
       <c r="N8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -976,11 +976,11 @@
         <v>2.87</v>
       </c>
       <c r="E9" s="1">
-        <f>(L9-D9)/D9</f>
+        <f t="shared" si="0"/>
         <v>-0.99651567944250874</v>
       </c>
       <c r="F9" s="1">
-        <f>(I9-L9)/L9</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G9" s="2">
@@ -1002,11 +1002,11 @@
         <v>0.01</v>
       </c>
       <c r="M9" s="1">
-        <f>(I9-D9)/D9</f>
+        <f t="shared" si="2"/>
         <v>-0.99651567944250874</v>
       </c>
       <c r="N9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -1023,11 +1023,11 @@
         <v>2.0099999999999998</v>
       </c>
       <c r="E10" s="1">
-        <f>(L10-D10)/D10</f>
+        <f t="shared" si="0"/>
         <v>-0.84079601990049746</v>
       </c>
       <c r="F10" s="1">
-        <f>(I10-L10)/L10</f>
+        <f t="shared" si="1"/>
         <v>-0.96875</v>
       </c>
       <c r="G10" s="2">
@@ -1049,11 +1049,11 @@
         <v>0.32</v>
       </c>
       <c r="M10" s="1">
-        <f>(I10-D10)/D10</f>
+        <f t="shared" si="2"/>
         <v>-0.99502487562189057</v>
       </c>
       <c r="N10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -1070,11 +1070,11 @@
         <v>10.46</v>
       </c>
       <c r="E11" s="1">
-        <f>(L11-D11)/D11</f>
+        <f t="shared" si="0"/>
         <v>-0.99904397705544934</v>
       </c>
       <c r="F11" s="1">
-        <f>(I11-L11)/L11</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G11" s="2">
@@ -1096,11 +1096,11 @@
         <v>0.01</v>
       </c>
       <c r="M11" s="1">
-        <f>(I11-D11)/D11</f>
+        <f t="shared" si="2"/>
         <v>-0.99904397705544934</v>
       </c>
       <c r="N11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -1117,11 +1117,11 @@
         <v>4.5</v>
       </c>
       <c r="E12" s="1">
-        <f>(L12-D12)/D12</f>
+        <f t="shared" si="0"/>
         <v>5.2088888888888896</v>
       </c>
       <c r="F12" s="1">
-        <f>(I12-L12)/L12</f>
+        <f t="shared" si="1"/>
         <v>-0.99964209019327122</v>
       </c>
       <c r="G12" s="2">
@@ -1143,11 +1143,11 @@
         <v>27.94</v>
       </c>
       <c r="M12" s="1">
-        <f>(I12-D12)/D12</f>
+        <f t="shared" si="2"/>
         <v>-0.99777777777777787</v>
       </c>
       <c r="N12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -1164,11 +1164,11 @@
         <v>18.38</v>
       </c>
       <c r="E13" s="1">
-        <f>(L13-D13)/D13</f>
+        <f t="shared" si="0"/>
         <v>-0.99945593035908586</v>
       </c>
       <c r="F13" s="1">
-        <f>(I13-L13)/L13</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G13" s="2">
@@ -1190,11 +1190,11 @@
         <v>0.01</v>
       </c>
       <c r="M13" s="1">
-        <f>(I13-D13)/D13</f>
+        <f t="shared" si="2"/>
         <v>-0.99945593035908586</v>
       </c>
       <c r="N13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -1211,11 +1211,11 @@
         <v>6.42</v>
       </c>
       <c r="E14" s="1">
-        <f>(L14-D14)/D14</f>
+        <f t="shared" si="0"/>
         <v>-0.99844236760124616</v>
       </c>
       <c r="F14" s="1">
-        <f>(I14-L14)/L14</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G14" s="2">
@@ -1237,11 +1237,11 @@
         <v>0.01</v>
       </c>
       <c r="M14" s="1">
-        <f>(I14-D14)/D14</f>
+        <f t="shared" si="2"/>
         <v>-0.99844236760124616</v>
       </c>
       <c r="N14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -1258,11 +1258,11 @@
         <v>1.65</v>
       </c>
       <c r="E15" s="1">
-        <f>(L15-D15)/D15</f>
+        <f t="shared" si="0"/>
         <v>-0.18787878787878778</v>
       </c>
       <c r="F15" s="1">
-        <f>(I15-L15)/L15</f>
+        <f t="shared" si="1"/>
         <v>-0.9253731343283581</v>
       </c>
       <c r="G15" s="1">
@@ -1284,11 +1284,11 @@
         <v>1.34</v>
       </c>
       <c r="M15" s="1">
-        <f>(I15-D15)/D15</f>
+        <f t="shared" si="2"/>
         <v>-0.93939393939393934</v>
       </c>
       <c r="N15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -1305,11 +1305,11 @@
         <v>4.3499999999999996</v>
       </c>
       <c r="E16" s="1">
-        <f>(L16-D16)/D16</f>
+        <f t="shared" si="0"/>
         <v>-0.90804597701149425</v>
       </c>
       <c r="F16" s="1">
-        <f>(I16-L16)/L16</f>
+        <f t="shared" si="1"/>
         <v>-0.625</v>
       </c>
       <c r="G16" s="2">
@@ -1331,11 +1331,11 @@
         <v>0.4</v>
       </c>
       <c r="M16" s="1">
-        <f>(I16-D16)/D16</f>
+        <f t="shared" si="2"/>
         <v>-0.96551724137931028</v>
       </c>
       <c r="N16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
@@ -1352,11 +1352,11 @@
         <v>16.97</v>
       </c>
       <c r="E17" s="1">
-        <f>(L17-D17)/D17</f>
+        <f t="shared" si="0"/>
         <v>-0.59104301708898044</v>
       </c>
       <c r="F17" s="1">
-        <f>(I17-L17)/L17</f>
+        <f t="shared" si="1"/>
         <v>-0.9668587896253602</v>
       </c>
       <c r="G17" s="2">
@@ -1378,11 +1378,11 @@
         <v>6.94</v>
       </c>
       <c r="M17" s="1">
-        <f>(I17-D17)/D17</f>
+        <f t="shared" si="2"/>
         <v>-0.98644667059516788</v>
       </c>
       <c r="N17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
@@ -1399,11 +1399,11 @@
         <v>1.35</v>
       </c>
       <c r="E18" s="1">
-        <f>(L18-D18)/D18</f>
+        <f t="shared" si="0"/>
         <v>-0.64444444444444449</v>
       </c>
       <c r="F18" s="1">
-        <f>(I18-L18)/L18</f>
+        <f t="shared" si="1"/>
         <v>-0.29166666666666657</v>
       </c>
       <c r="G18" s="3">
@@ -1425,11 +1425,11 @@
         <v>0.48</v>
       </c>
       <c r="M18" s="1">
-        <f>(I18-D18)/D18</f>
+        <f t="shared" si="2"/>
         <v>-0.74814814814814812</v>
       </c>
       <c r="N18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
@@ -1446,11 +1446,11 @@
         <v>1.21</v>
       </c>
       <c r="E19" s="1">
-        <f>(L19-D19)/D19</f>
+        <f t="shared" si="0"/>
         <v>-0.64462809917355379</v>
       </c>
       <c r="F19" s="1">
-        <f>(I19-L19)/L19</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G19" s="2">
@@ -1472,11 +1472,11 @@
         <v>0.43</v>
       </c>
       <c r="M19" s="1">
-        <f>(I19-D19)/D19</f>
+        <f t="shared" si="2"/>
         <v>-0.64462809917355379</v>
       </c>
       <c r="N19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
@@ -1493,11 +1493,11 @@
         <v>1.74</v>
       </c>
       <c r="E20" s="1">
-        <f>(L20-D20)/D20</f>
+        <f t="shared" si="0"/>
         <v>-0.68390804597701149</v>
       </c>
       <c r="F20" s="1">
-        <f>(I20-L20)/L20</f>
+        <f t="shared" si="1"/>
         <v>5.454545454545439E-2</v>
       </c>
       <c r="G20" s="3">
@@ -1519,11 +1519,11 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="M20" s="1">
-        <f>(I20-D20)/D20</f>
+        <f t="shared" si="2"/>
         <v>-0.66666666666666674</v>
       </c>
       <c r="N20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
@@ -1540,11 +1540,11 @@
         <v>15.85</v>
       </c>
       <c r="E21" s="1">
-        <f>(L21-D21)/D21</f>
+        <f t="shared" si="0"/>
         <v>-0.89905362776025244</v>
       </c>
       <c r="F21" s="1">
-        <f>(I21-L21)/L21</f>
+        <f t="shared" si="1"/>
         <v>-0.5625</v>
       </c>
       <c r="G21" s="2">
@@ -1566,11 +1566,11 @@
         <v>1.6</v>
       </c>
       <c r="M21" s="1">
-        <f>(I21-D21)/D21</f>
+        <f t="shared" si="2"/>
         <v>-0.95583596214511046</v>
       </c>
       <c r="N21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
@@ -1587,11 +1587,11 @@
         <v>5.32</v>
       </c>
       <c r="E22" s="1">
-        <f>(L22-D22)/D22</f>
+        <f t="shared" si="0"/>
         <v>-0.6428571428571429</v>
       </c>
       <c r="F22" s="1">
-        <f>(I22-L22)/L22</f>
+        <f t="shared" si="1"/>
         <v>-0.58947368421052626</v>
       </c>
       <c r="G22" s="2">
@@ -1613,11 +1613,11 @@
         <v>1.9</v>
       </c>
       <c r="M22" s="1">
-        <f>(I22-D22)/D22</f>
+        <f t="shared" si="2"/>
         <v>-0.85338345864661647</v>
       </c>
       <c r="N22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
@@ -1634,11 +1634,11 @@
         <v>2.17</v>
       </c>
       <c r="E23" s="1">
-        <f>(L23-D23)/D23</f>
+        <f t="shared" si="0"/>
         <v>0.14746543778801857</v>
       </c>
       <c r="F23" s="1">
-        <f>(I23-L23)/L23</f>
+        <f t="shared" si="1"/>
         <v>-0.62248995983935751</v>
       </c>
       <c r="G23" s="2">
@@ -1660,11 +1660,11 @@
         <v>2.4900000000000002</v>
       </c>
       <c r="M23" s="1">
-        <f>(I23-D23)/D23</f>
+        <f t="shared" si="2"/>
         <v>-0.56682027649769584</v>
       </c>
       <c r="N23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
@@ -1681,11 +1681,11 @@
         <v>6.8</v>
       </c>
       <c r="E24" s="1">
-        <f>(L24-D24)/D24</f>
+        <f t="shared" si="0"/>
         <v>-0.29705882352941171</v>
       </c>
       <c r="F24" s="1">
-        <f>(I24-L24)/L24</f>
+        <f t="shared" si="1"/>
         <v>-0.71129707112970719</v>
       </c>
       <c r="G24" s="1">
@@ -1707,11 +1707,11 @@
         <v>4.78</v>
       </c>
       <c r="M24" s="1">
-        <f>(I24-D24)/D24</f>
+        <f t="shared" si="2"/>
         <v>-0.79705882352941182</v>
       </c>
       <c r="N24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
@@ -1728,11 +1728,11 @@
         <v>7.6</v>
       </c>
       <c r="E25" s="1">
-        <f>(L25-D25)/D25</f>
+        <f t="shared" si="0"/>
         <v>8.0263157894737008E-2</v>
       </c>
       <c r="F25" s="1">
-        <f>(I25-L25)/L25</f>
+        <f t="shared" si="1"/>
         <v>-0.82825822168087693</v>
       </c>
       <c r="G25" s="2">
@@ -1754,11 +1754,11 @@
         <v>8.2100000000000009</v>
       </c>
       <c r="M25" s="1">
-        <f>(I25-D25)/D25</f>
+        <f t="shared" si="2"/>
         <v>-0.81447368421052624</v>
       </c>
       <c r="N25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
@@ -1775,11 +1775,11 @@
         <v>4.32</v>
       </c>
       <c r="E26" s="1">
-        <f>(L26-D26)/D26</f>
+        <f t="shared" si="0"/>
         <v>-0.23611111111111122</v>
       </c>
       <c r="F26" s="1">
-        <f>(I26-L26)/L26</f>
+        <f t="shared" si="1"/>
         <v>-0.55454545454545456</v>
       </c>
       <c r="G26" s="4">
@@ -1801,11 +1801,11 @@
         <v>3.3</v>
       </c>
       <c r="M26" s="1">
-        <f>(I26-D26)/D26</f>
+        <f t="shared" si="2"/>
         <v>-0.65972222222222232</v>
       </c>
       <c r="N26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
@@ -1822,11 +1822,11 @@
         <v>5.21</v>
       </c>
       <c r="E27" s="1">
-        <f>(L27-D27)/D27</f>
+        <f t="shared" si="0"/>
         <v>-0.25335892514395392</v>
       </c>
       <c r="F27" s="1">
-        <f>(I27-L27)/L27</f>
+        <f t="shared" si="1"/>
         <v>-0.53470437017994854</v>
       </c>
       <c r="G27" s="1">
@@ -1848,11 +1848,11 @@
         <v>3.89</v>
       </c>
       <c r="M27" s="1">
-        <f>(I27-D27)/D27</f>
+        <f t="shared" si="2"/>
         <v>-0.65259117082533591</v>
       </c>
       <c r="N27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
@@ -1869,11 +1869,11 @@
         <v>3.86</v>
       </c>
       <c r="E28" s="1">
-        <f>(L28-D28)/D28</f>
+        <f t="shared" si="0"/>
         <v>-0.52331606217616566</v>
       </c>
       <c r="F28" s="1">
-        <f>(I28-L28)/L28</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G28" s="2">
@@ -1895,11 +1895,11 @@
         <v>1.84</v>
       </c>
       <c r="M28" s="1">
-        <f>(I28-D28)/D28</f>
+        <f t="shared" si="2"/>
         <v>-0.52331606217616566</v>
       </c>
       <c r="N28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
@@ -1916,11 +1916,11 @@
         <v>0.76</v>
       </c>
       <c r="E29" s="1">
-        <f>(L29-D29)/D29</f>
+        <f t="shared" si="0"/>
         <v>0.88157894736842091</v>
       </c>
       <c r="F29" s="1">
-        <f>(I29-L29)/L29</f>
+        <f t="shared" si="1"/>
         <v>0.32867132867132864</v>
       </c>
       <c r="G29" s="1">
@@ -1942,11 +1942,11 @@
         <v>1.43</v>
       </c>
       <c r="M29" s="1">
-        <f>(I29-D29)/D29</f>
+        <f t="shared" si="2"/>
         <v>1.4999999999999998</v>
       </c>
       <c r="N29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
@@ -1963,11 +1963,11 @@
         <v>1.05</v>
       </c>
       <c r="E30" s="1">
-        <f>(L30-D30)/D30</f>
+        <f t="shared" si="0"/>
         <v>1.5142857142857142</v>
       </c>
       <c r="F30" s="1">
-        <f>(I30-L30)/L30</f>
+        <f t="shared" si="1"/>
         <v>-0.23863636363636376</v>
       </c>
       <c r="G30" s="2">
@@ -1989,11 +1989,11 @@
         <v>2.64</v>
       </c>
       <c r="M30" s="1">
-        <f>(I30-D30)/D30</f>
+        <f t="shared" si="2"/>
         <v>0.91428571428571404</v>
       </c>
       <c r="N30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
@@ -2010,11 +2010,11 @@
         <v>2.54</v>
       </c>
       <c r="E31" s="1">
-        <f>(L31-D31)/D31</f>
+        <f t="shared" si="0"/>
         <v>-0.57086614173228345</v>
       </c>
       <c r="F31" s="1">
-        <f>(I31-L31)/L31</f>
+        <f t="shared" si="1"/>
         <v>0.88073394495412816</v>
       </c>
       <c r="G31" s="3">
@@ -2036,11 +2036,11 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="M31" s="1">
-        <f>(I31-D31)/D31</f>
+        <f t="shared" si="2"/>
         <v>-0.19291338582677173</v>
       </c>
       <c r="N31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
@@ -2057,11 +2057,11 @@
         <v>3.28</v>
       </c>
       <c r="E32" s="1">
-        <f>(L32-D32)/D32</f>
+        <f t="shared" si="0"/>
         <v>0.21646341463414648</v>
       </c>
       <c r="F32" s="1">
-        <f>(I32-L32)/L32</f>
+        <f t="shared" si="1"/>
         <v>-0.44360902255639095</v>
       </c>
       <c r="G32" s="2">
@@ -2083,11 +2083,11 @@
         <v>3.99</v>
       </c>
       <c r="M32" s="1">
-        <f>(I32-D32)/D32</f>
+        <f t="shared" si="2"/>
         <v>-0.32317073170731697</v>
       </c>
       <c r="N32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
@@ -2104,11 +2104,11 @@
         <v>19</v>
       </c>
       <c r="E33" s="1">
-        <f>(L33-D33)/D33</f>
+        <f t="shared" si="0"/>
         <v>-0.89473684210526316</v>
       </c>
       <c r="F33" s="1">
-        <f>(I33-L33)/L33</f>
+        <f t="shared" si="1"/>
         <v>0.15500000000000003</v>
       </c>
       <c r="G33" s="2">
@@ -2130,11 +2130,11 @@
         <v>2</v>
       </c>
       <c r="M33" s="1">
-        <f>(I33-D33)/D33</f>
+        <f t="shared" si="2"/>
         <v>-0.87842105263157899</v>
       </c>
       <c r="N33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
@@ -2151,11 +2151,11 @@
         <v>2.86</v>
       </c>
       <c r="E34" s="1">
-        <f>(L34-D34)/D34</f>
+        <f t="shared" ref="E34:E65" si="3">(L34-D34)/D34</f>
         <v>-6.9930069930069999E-3</v>
       </c>
       <c r="F34" s="1">
-        <f>(I34-L34)/L34</f>
+        <f t="shared" ref="F34:F65" si="4">(I34-L34)/L34</f>
         <v>-0.17957746478873232</v>
       </c>
       <c r="G34" s="2">
@@ -2177,11 +2177,11 @@
         <v>2.84</v>
       </c>
       <c r="M34" s="1">
-        <f>(I34-D34)/D34</f>
+        <f t="shared" ref="M34:M65" si="5">(I34-D34)/D34</f>
         <v>-0.18531468531468526</v>
       </c>
       <c r="N34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
@@ -2198,11 +2198,11 @@
         <v>5.0599999999999996</v>
       </c>
       <c r="E35" s="1">
-        <f>(L35-D35)/D35</f>
+        <f t="shared" si="3"/>
         <v>-0.70355731225296436</v>
       </c>
       <c r="F35" s="1">
-        <f>(I35-L35)/L35</f>
+        <f t="shared" si="4"/>
         <v>0.70666666666666667</v>
       </c>
       <c r="G35" s="2">
@@ -2224,11 +2224,11 @@
         <v>1.5</v>
       </c>
       <c r="M35" s="1">
-        <f>(I35-D35)/D35</f>
+        <f t="shared" si="5"/>
         <v>-0.49407114624505921</v>
       </c>
       <c r="N35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
@@ -2245,11 +2245,11 @@
         <v>4.32</v>
       </c>
       <c r="E36" s="1">
-        <f>(L36-D36)/D36</f>
+        <f t="shared" si="3"/>
         <v>-0.51388888888888895</v>
       </c>
       <c r="F36" s="1">
-        <f>(I36-L36)/L36</f>
+        <f t="shared" si="4"/>
         <v>0.23333333333333323</v>
       </c>
       <c r="G36" s="2">
@@ -2271,11 +2271,11 @@
         <v>2.1</v>
       </c>
       <c r="M36" s="1">
-        <f>(I36-D36)/D36</f>
+        <f t="shared" si="5"/>
         <v>-0.40046296296296302</v>
       </c>
       <c r="N36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
@@ -2292,11 +2292,11 @@
         <v>10.09</v>
       </c>
       <c r="E37" s="1">
-        <f>(L37-D37)/D37</f>
+        <f t="shared" si="3"/>
         <v>-0.1734390485629336</v>
       </c>
       <c r="F37" s="1">
-        <f>(I37-L37)/L37</f>
+        <f t="shared" si="4"/>
         <v>-0.64028776978417268</v>
       </c>
       <c r="G37" s="1">
@@ -2318,11 +2318,11 @@
         <v>8.34</v>
       </c>
       <c r="M37" s="1">
-        <f>(I37-D37)/D37</f>
+        <f t="shared" si="5"/>
         <v>-0.70267591674925667</v>
       </c>
       <c r="N37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
@@ -2339,11 +2339,11 @@
         <v>13.15</v>
       </c>
       <c r="E38" s="1">
-        <f>(L38-D38)/D38</f>
+        <f t="shared" si="3"/>
         <v>0.14372623574144477</v>
       </c>
       <c r="F38" s="1">
-        <f>(I38-L38)/L38</f>
+        <f t="shared" si="4"/>
         <v>-0.79521276595744683</v>
       </c>
       <c r="G38" s="2">
@@ -2365,11 +2365,11 @@
         <v>15.04</v>
       </c>
       <c r="M38" s="1">
-        <f>(I38-D38)/D38</f>
+        <f t="shared" si="5"/>
         <v>-0.76577946768060834</v>
       </c>
       <c r="N38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
@@ -2386,11 +2386,11 @@
         <v>16.3</v>
       </c>
       <c r="E39" s="1">
-        <f>(L39-D39)/D39</f>
+        <f t="shared" si="3"/>
         <v>-0.8601226993865031</v>
       </c>
       <c r="F39" s="1">
-        <f>(I39-L39)/L39</f>
+        <f t="shared" si="4"/>
         <v>0.41228070175438619</v>
       </c>
       <c r="G39" s="2">
@@ -2412,11 +2412,11 @@
         <v>2.2799999999999998</v>
       </c>
       <c r="M39" s="1">
-        <f>(I39-D39)/D39</f>
+        <f t="shared" si="5"/>
         <v>-0.80245398773006127</v>
       </c>
       <c r="N39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
@@ -2433,11 +2433,11 @@
         <v>11.48</v>
       </c>
       <c r="E40" s="1">
-        <f>(L40-D40)/D40</f>
+        <f t="shared" si="3"/>
         <v>-0.53919860627177707</v>
       </c>
       <c r="F40" s="1">
-        <f>(I40-L40)/L40</f>
+        <f t="shared" si="4"/>
         <v>-0.33648393194706999</v>
       </c>
       <c r="G40" s="2">
@@ -2459,11 +2459,11 @@
         <v>5.29</v>
       </c>
       <c r="M40" s="1">
-        <f>(I40-D40)/D40</f>
+        <f t="shared" si="5"/>
         <v>-0.69425087108013939</v>
       </c>
       <c r="N40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
@@ -2480,11 +2480,11 @@
         <v>10.1</v>
       </c>
       <c r="E41" s="1">
-        <f>(L41-D41)/D41</f>
+        <f t="shared" si="3"/>
         <v>-0.65742574257425745</v>
       </c>
       <c r="F41" s="1">
-        <f>(I41-L41)/L41</f>
+        <f t="shared" si="4"/>
         <v>0.15606936416184972</v>
       </c>
       <c r="G41" s="2">
@@ -2506,11 +2506,11 @@
         <v>3.46</v>
       </c>
       <c r="M41" s="1">
-        <f>(I41-D41)/D41</f>
+        <f t="shared" si="5"/>
         <v>-0.60396039603960394</v>
       </c>
       <c r="N41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
@@ -2527,11 +2527,11 @@
         <v>3.79</v>
       </c>
       <c r="E42" s="1">
-        <f>(L42-D42)/D42</f>
+        <f t="shared" si="3"/>
         <v>-0.63060686015831136</v>
       </c>
       <c r="F42" s="1">
-        <f>(I42-L42)/L42</f>
+        <f t="shared" si="4"/>
         <v>2.535714285714286</v>
       </c>
       <c r="G42" s="1">
@@ -2553,11 +2553,11 @@
         <v>1.4</v>
       </c>
       <c r="M42" s="1">
-        <f>(I42-D42)/D42</f>
+        <f t="shared" si="5"/>
         <v>0.3060686015831135</v>
       </c>
       <c r="N42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
@@ -2574,11 +2574,11 @@
         <v>12.36</v>
       </c>
       <c r="E43" s="1">
-        <f>(L43-D43)/D43</f>
+        <f t="shared" si="3"/>
         <v>-0.42880258899676377</v>
       </c>
       <c r="F43" s="1">
-        <f>(I43-L43)/L43</f>
+        <f t="shared" si="4"/>
         <v>-0.2847025495750708</v>
       </c>
       <c r="G43" s="2">
@@ -2600,11 +2600,11 @@
         <v>7.06</v>
       </c>
       <c r="M43" s="1">
-        <f>(I43-D43)/D43</f>
+        <f t="shared" si="5"/>
         <v>-0.59142394822006472</v>
       </c>
       <c r="N43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
@@ -2621,11 +2621,11 @@
         <v>14.1</v>
       </c>
       <c r="E44" s="1">
-        <f>(L44-D44)/D44</f>
+        <f t="shared" si="3"/>
         <v>-0.39219858156028364</v>
       </c>
       <c r="F44" s="1">
-        <f>(I44-L44)/L44</f>
+        <f t="shared" si="4"/>
         <v>-0.39089848308051345</v>
       </c>
       <c r="G44" s="2">
@@ -2647,11 +2647,11 @@
         <v>8.57</v>
       </c>
       <c r="M44" s="1">
-        <f>(I44-D44)/D44</f>
+        <f t="shared" si="5"/>
         <v>-0.6297872340425531</v>
       </c>
       <c r="N44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
@@ -2668,11 +2668,11 @@
         <v>4.43</v>
       </c>
       <c r="E45" s="1">
-        <f>(L45-D45)/D45</f>
+        <f t="shared" si="3"/>
         <v>-0.68171557562076746</v>
       </c>
       <c r="F45" s="1">
-        <f>(I45-L45)/L45</f>
+        <f t="shared" si="4"/>
         <v>2.7163120567375887</v>
       </c>
       <c r="G45" s="2">
@@ -2694,11 +2694,11 @@
         <v>1.41</v>
       </c>
       <c r="M45" s="1">
-        <f>(I45-D45)/D45</f>
+        <f t="shared" si="5"/>
         <v>0.18284424379232517</v>
       </c>
       <c r="N45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
@@ -2715,11 +2715,11 @@
         <v>10.68</v>
       </c>
       <c r="E46" s="1">
-        <f>(L46-D46)/D46</f>
+        <f t="shared" si="3"/>
         <v>-0.197565543071161</v>
       </c>
       <c r="F46" s="1">
-        <f>(I46-L46)/L46</f>
+        <f t="shared" si="4"/>
         <v>-0.38039673278879821</v>
       </c>
       <c r="G46" s="2">
@@ -2741,11 +2741,11 @@
         <v>8.57</v>
       </c>
       <c r="M46" s="1">
-        <f>(I46-D46)/D46</f>
+        <f t="shared" si="5"/>
         <v>-0.50280898876404501</v>
       </c>
       <c r="N46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
@@ -2762,11 +2762,11 @@
         <v>18.579999999999998</v>
       </c>
       <c r="E47" s="1">
-        <f>(L47-D47)/D47</f>
+        <f t="shared" si="3"/>
         <v>-0.1910656620021528</v>
       </c>
       <c r="F47" s="1">
-        <f>(I47-L47)/L47</f>
+        <f t="shared" si="4"/>
         <v>-0.64471057884231542</v>
       </c>
       <c r="G47" s="2">
@@ -2788,11 +2788,11 @@
         <v>15.03</v>
       </c>
       <c r="M47" s="1">
-        <f>(I47-D47)/D47</f>
+        <f t="shared" si="5"/>
         <v>-0.71259418729817003</v>
       </c>
       <c r="N47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
@@ -2809,11 +2809,11 @@
         <v>10.7</v>
       </c>
       <c r="E48" s="1">
-        <f>(L48-D48)/D48</f>
+        <f t="shared" si="3"/>
         <v>0.13084112149532715</v>
       </c>
       <c r="F48" s="1">
-        <f>(I48-L48)/L48</f>
+        <f t="shared" si="4"/>
         <v>-0.55041322314049579</v>
       </c>
       <c r="G48" s="2">
@@ -2835,11 +2835,11 @@
         <v>12.1</v>
       </c>
       <c r="M48" s="1">
-        <f>(I48-D48)/D48</f>
+        <f t="shared" si="5"/>
         <v>-0.49158878504672893</v>
       </c>
       <c r="N48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
@@ -2856,11 +2856,11 @@
         <v>11.01</v>
       </c>
       <c r="E49" s="1">
-        <f>(L49-D49)/D49</f>
+        <f t="shared" si="3"/>
         <v>-0.16802906448683014</v>
       </c>
       <c r="F49" s="1">
-        <f>(I49-L49)/L49</f>
+        <f t="shared" si="4"/>
         <v>-0.32096069868995636</v>
       </c>
       <c r="G49" s="2">
@@ -2882,11 +2882,11 @@
         <v>9.16</v>
       </c>
       <c r="M49" s="1">
-        <f>(I49-D49)/D49</f>
+        <f t="shared" si="5"/>
         <v>-0.43505903723887374</v>
       </c>
       <c r="N49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
@@ -2903,11 +2903,11 @@
         <v>2.8</v>
       </c>
       <c r="E50" s="1">
-        <f>(L50-D50)/D50</f>
+        <f t="shared" si="3"/>
         <v>1.1178571428571429</v>
       </c>
       <c r="F50" s="1">
-        <f>(I50-L50)/L50</f>
+        <f t="shared" si="4"/>
         <v>0.10118043844856671</v>
       </c>
       <c r="G50" s="2">
@@ -2929,11 +2929,11 @@
         <v>5.93</v>
       </c>
       <c r="M50" s="1">
-        <f>(I50-D50)/D50</f>
+        <f t="shared" si="5"/>
         <v>1.3321428571428573</v>
       </c>
       <c r="N50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
@@ -2950,11 +2950,11 @@
         <v>42.47</v>
       </c>
       <c r="E51" s="1">
-        <f>(L51-D51)/D51</f>
+        <f t="shared" si="3"/>
         <v>-0.82340475629856369</v>
       </c>
       <c r="F51" s="1">
-        <f>(I51-L51)/L51</f>
+        <f t="shared" si="4"/>
         <v>-0.10799999999999994</v>
       </c>
       <c r="G51" s="2">
@@ -2976,11 +2976,11 @@
         <v>7.5</v>
       </c>
       <c r="M51" s="1">
-        <f>(I51-D51)/D51</f>
+        <f t="shared" si="5"/>
         <v>-0.84247704261831891</v>
       </c>
       <c r="N51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
@@ -2997,11 +2997,11 @@
         <v>20.72</v>
       </c>
       <c r="E52" s="1">
-        <f>(L52-D52)/D52</f>
+        <f t="shared" si="3"/>
         <v>-0.39285714285714279</v>
       </c>
       <c r="F52" s="1">
-        <f>(I52-L52)/L52</f>
+        <f t="shared" si="4"/>
         <v>-0.44912559618441972</v>
       </c>
       <c r="G52" s="2">
@@ -3023,11 +3023,11 @@
         <v>12.58</v>
       </c>
       <c r="M52" s="1">
-        <f>(I52-D52)/D52</f>
+        <f t="shared" si="5"/>
         <v>-0.66554054054054057</v>
       </c>
       <c r="N52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
@@ -3044,11 +3044,11 @@
         <v>10.52</v>
       </c>
       <c r="E53" s="1">
-        <f>(L53-D53)/D53</f>
+        <f t="shared" si="3"/>
         <v>-5.3231939163497978E-2</v>
       </c>
       <c r="F53" s="1">
-        <f>(I53-L53)/L53</f>
+        <f t="shared" si="4"/>
         <v>-0.27710843373493982</v>
       </c>
       <c r="G53" s="1">
@@ -3070,11 +3070,11 @@
         <v>9.9600000000000009</v>
       </c>
       <c r="M53" s="1">
-        <f>(I53-D53)/D53</f>
+        <f t="shared" si="5"/>
         <v>-0.31558935361216728</v>
       </c>
       <c r="N53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
@@ -3091,11 +3091,11 @@
         <v>7.2</v>
       </c>
       <c r="E54" s="1">
-        <f>(L54-D54)/D54</f>
+        <f t="shared" si="3"/>
         <v>-0.15694444444444441</v>
       </c>
       <c r="F54" s="1">
-        <f>(I54-L54)/L54</f>
+        <f t="shared" si="4"/>
         <v>0.20263591433278411</v>
       </c>
       <c r="G54" s="2">
@@ -3117,11 +3117,11 @@
         <v>6.07</v>
       </c>
       <c r="M54" s="1">
-        <f>(I54-D54)/D54</f>
+        <f t="shared" si="5"/>
         <v>1.388888888888884E-2</v>
       </c>
       <c r="N54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
@@ -3138,11 +3138,11 @@
         <v>4.3899999999999997</v>
       </c>
       <c r="E55" s="1">
-        <f>(L55-D55)/D55</f>
+        <f t="shared" si="3"/>
         <v>0.53986332574031892</v>
       </c>
       <c r="F55" s="1">
-        <f>(I55-L55)/L55</f>
+        <f t="shared" si="4"/>
         <v>0.14497041420118351</v>
       </c>
       <c r="G55" s="2">
@@ -3164,11 +3164,11 @@
         <v>6.76</v>
       </c>
       <c r="M55" s="1">
-        <f>(I55-D55)/D55</f>
+        <f t="shared" si="5"/>
         <v>0.76309794988610491</v>
       </c>
       <c r="N55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
@@ -3185,11 +3185,11 @@
         <v>10.15</v>
       </c>
       <c r="E56" s="1">
-        <f>(L56-D56)/D56</f>
+        <f t="shared" si="3"/>
         <v>-0.78325123152709364</v>
       </c>
       <c r="F56" s="1">
-        <f>(I56-L56)/L56</f>
+        <f t="shared" si="4"/>
         <v>2.545454545454545</v>
       </c>
       <c r="G56" s="2">
@@ -3211,11 +3211,11 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="M56" s="1">
-        <f>(I56-D56)/D56</f>
+        <f t="shared" si="5"/>
         <v>-0.23152709359605916</v>
       </c>
       <c r="N56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
@@ -3232,11 +3232,11 @@
         <v>11.29</v>
       </c>
       <c r="E57" s="1">
-        <f>(L57-D57)/D57</f>
+        <f t="shared" si="3"/>
         <v>-0.29052258635961026</v>
       </c>
       <c r="F57" s="1">
-        <f>(I57-L57)/L57</f>
+        <f t="shared" si="4"/>
         <v>-1.7478152309612943E-2</v>
       </c>
       <c r="G57" s="2">
@@ -3258,11 +3258,11 @@
         <v>8.01</v>
       </c>
       <c r="M57" s="1">
-        <f>(I57-D57)/D57</f>
+        <f t="shared" si="5"/>
         <v>-0.30292294065544723</v>
       </c>
       <c r="N57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
@@ -3279,11 +3279,11 @@
         <v>5.9</v>
       </c>
       <c r="E58" s="1">
-        <f>(L58-D58)/D58</f>
+        <f t="shared" si="3"/>
         <v>-0.64576271186440681</v>
       </c>
       <c r="F58" s="1">
-        <f>(I58-L58)/L58</f>
+        <f t="shared" si="4"/>
         <v>3.1578947368421053</v>
       </c>
       <c r="G58" s="2">
@@ -3305,11 +3305,11 @@
         <v>2.09</v>
       </c>
       <c r="M58" s="1">
-        <f>(I58-D58)/D58</f>
+        <f t="shared" si="5"/>
         <v>0.47288135593220321</v>
       </c>
       <c r="N58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
@@ -3326,11 +3326,11 @@
         <v>10.3</v>
       </c>
       <c r="E59" s="1">
-        <f>(L59-D59)/D59</f>
+        <f t="shared" si="3"/>
         <v>-0.37669902912621367</v>
       </c>
       <c r="F59" s="1">
-        <f>(I59-L59)/L59</f>
+        <f t="shared" si="4"/>
         <v>0.37850467289719625</v>
       </c>
       <c r="G59" s="4">
@@ -3352,11 +3352,11 @@
         <v>6.42</v>
       </c>
       <c r="M59" s="1">
-        <f>(I59-D59)/D59</f>
+        <f t="shared" si="5"/>
         <v>-0.14077669902912632</v>
       </c>
       <c r="N59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
@@ -3373,11 +3373,11 @@
         <v>15.34</v>
       </c>
       <c r="E60" s="1">
-        <f>(L60-D60)/D60</f>
+        <f t="shared" si="3"/>
         <v>-0.34876140808344197</v>
       </c>
       <c r="F60" s="1">
-        <f>(I60-L60)/L60</f>
+        <f t="shared" si="4"/>
         <v>2.2022022022022084E-2</v>
       </c>
       <c r="G60" s="2">
@@ -3399,11 +3399,11 @@
         <v>9.99</v>
       </c>
       <c r="M60" s="1">
-        <f>(I60-D60)/D60</f>
+        <f t="shared" si="5"/>
         <v>-0.33441981747066485</v>
       </c>
       <c r="N60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
@@ -3420,11 +3420,11 @@
         <v>12.1</v>
       </c>
       <c r="E61" s="1">
-        <f>(L61-D61)/D61</f>
+        <f t="shared" si="3"/>
         <v>-0.29256198347107432</v>
       </c>
       <c r="F61" s="1">
-        <f>(I61-L61)/L61</f>
+        <f t="shared" si="4"/>
         <v>0.22313084112149534</v>
       </c>
       <c r="G61" s="2">
@@ -3446,11 +3446,11 @@
         <v>8.56</v>
       </c>
       <c r="M61" s="1">
-        <f>(I61-D61)/D61</f>
+        <f t="shared" si="5"/>
         <v>-0.13471074380165282</v>
       </c>
       <c r="N61" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
@@ -3467,11 +3467,11 @@
         <v>23.03</v>
       </c>
       <c r="E62" s="1">
-        <f>(L62-D62)/D62</f>
+        <f t="shared" si="3"/>
         <v>-0.98132870169344333</v>
       </c>
       <c r="F62" s="1">
-        <f>(I62-L62)/L62</f>
+        <f t="shared" si="4"/>
         <v>23.348837209302328</v>
       </c>
       <c r="G62" s="2">
@@ -3493,11 +3493,11 @@
         <v>0.43</v>
       </c>
       <c r="M62" s="1">
-        <f>(I62-D62)/D62</f>
+        <f t="shared" si="5"/>
         <v>-0.54537559704732952</v>
       </c>
       <c r="N62" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
@@ -3514,11 +3514,11 @@
         <v>13.29</v>
       </c>
       <c r="E63" s="1">
-        <f>(L63-D63)/D63</f>
+        <f t="shared" si="3"/>
         <v>-0.31301730624529711</v>
       </c>
       <c r="F63" s="1">
-        <f>(I63-L63)/L63</f>
+        <f t="shared" si="4"/>
         <v>0.17305585980284774</v>
       </c>
       <c r="G63" s="2">
@@ -3540,11 +3540,11 @@
         <v>9.1300000000000008</v>
       </c>
       <c r="M63" s="1">
-        <f>(I63-D63)/D63</f>
+        <f t="shared" si="5"/>
         <v>-0.19413092550790056</v>
       </c>
       <c r="N63" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
@@ -3561,11 +3561,11 @@
         <v>13.58</v>
       </c>
       <c r="E64" s="1">
-        <f>(L64-D64)/D64</f>
+        <f t="shared" si="3"/>
         <v>8.3946980854197384E-2</v>
       </c>
       <c r="F64" s="1">
-        <f>(I64-L64)/L64</f>
+        <f t="shared" si="4"/>
         <v>-0.22146739130434781</v>
       </c>
       <c r="G64" s="2">
@@ -3587,11 +3587,11 @@
         <v>14.72</v>
       </c>
       <c r="M64" s="1">
-        <f>(I64-D64)/D64</f>
+        <f t="shared" si="5"/>
         <v>-0.15611192930780554</v>
       </c>
       <c r="N64" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
@@ -3608,11 +3608,11 @@
         <v>54.87</v>
       </c>
       <c r="E65" s="1">
-        <f>(L65-D65)/D65</f>
+        <f t="shared" si="3"/>
         <v>-0.66630216876252968</v>
       </c>
       <c r="F65" s="1">
-        <f>(I65-L65)/L65</f>
+        <f t="shared" si="4"/>
         <v>-0.35226652102676131</v>
       </c>
       <c r="G65" s="2">
@@ -3634,11 +3634,11 @@
         <v>18.309999999999999</v>
       </c>
       <c r="M65" s="1">
-        <f>(I65-D65)/D65</f>
+        <f t="shared" si="5"/>
         <v>-0.78385274284672868</v>
       </c>
       <c r="N65" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
@@ -3655,11 +3655,11 @@
         <v>15.12</v>
       </c>
       <c r="E66" s="1">
-        <f>(L66-D66)/D66</f>
+        <f t="shared" ref="E66:E97" si="6">(L66-D66)/D66</f>
         <v>-0.34788359788359791</v>
       </c>
       <c r="F66" s="1">
-        <f>(I66-L66)/L66</f>
+        <f t="shared" ref="F66:F85" si="7">(I66-L66)/L66</f>
         <v>0.22718052738336716</v>
       </c>
       <c r="G66" s="2">
@@ -3681,11 +3681,11 @@
         <v>9.86</v>
       </c>
       <c r="M66" s="1">
-        <f>(I66-D66)/D66</f>
+        <f t="shared" ref="M66:M85" si="8">(I66-D66)/D66</f>
         <v>-0.19973544973544971</v>
       </c>
       <c r="N66" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
@@ -3702,11 +3702,11 @@
         <v>6.32</v>
       </c>
       <c r="E67" s="1">
-        <f>(L67-D67)/D67</f>
+        <f t="shared" si="6"/>
         <v>7.7531645569620139E-2</v>
       </c>
       <c r="F67" s="1">
-        <f>(I67-L67)/L67</f>
+        <f t="shared" si="7"/>
         <v>0.80029368575624094</v>
       </c>
       <c r="G67" s="2">
@@ -3728,11 +3728,11 @@
         <v>6.81</v>
       </c>
       <c r="M67" s="1">
-        <f>(I67-D67)/D67</f>
+        <f t="shared" si="8"/>
         <v>0.93987341772151889</v>
       </c>
       <c r="N67" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
@@ -3749,11 +3749,11 @@
         <v>24.9</v>
       </c>
       <c r="E68" s="1">
-        <f>(L68-D68)/D68</f>
+        <f t="shared" si="6"/>
         <v>0.21325301204819289</v>
       </c>
       <c r="F68" s="1">
-        <f>(I68-L68)/L68</f>
+        <f t="shared" si="7"/>
         <v>-0.55511420059582928</v>
       </c>
       <c r="G68" s="2">
@@ -3775,11 +3775,11 @@
         <v>30.21</v>
       </c>
       <c r="M68" s="1">
-        <f>(I68-D68)/D68</f>
+        <f t="shared" si="8"/>
         <v>-0.46024096385542168</v>
       </c>
       <c r="N68" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
@@ -3796,11 +3796,11 @@
         <v>41.4</v>
       </c>
       <c r="E69" s="1">
-        <f>(L69-D69)/D69</f>
+        <f t="shared" si="6"/>
         <v>-0.79516908212560389</v>
       </c>
       <c r="F69" s="1">
-        <f>(I69-L69)/L69</f>
+        <f t="shared" si="7"/>
         <v>0.68514150943396213</v>
       </c>
       <c r="G69" s="2">
@@ -3822,11 +3822,11 @@
         <v>8.48</v>
       </c>
       <c r="M69" s="1">
-        <f>(I69-D69)/D69</f>
+        <f t="shared" si="8"/>
         <v>-0.65483091787439618</v>
       </c>
       <c r="N69" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
@@ -3843,11 +3843,11 @@
         <v>20.76</v>
       </c>
       <c r="E70" s="1">
-        <f>(L70-D70)/D70</f>
+        <f t="shared" si="6"/>
         <v>-0.52023121387283233</v>
       </c>
       <c r="F70" s="1">
-        <f>(I70-L70)/L70</f>
+        <f t="shared" si="7"/>
         <v>0.61847389558232924</v>
       </c>
       <c r="G70" s="2">
@@ -3869,11 +3869,11 @@
         <v>9.9600000000000009</v>
       </c>
       <c r="M70" s="1">
-        <f>(I70-D70)/D70</f>
+        <f t="shared" si="8"/>
         <v>-0.22350674373795762</v>
       </c>
       <c r="N70" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
@@ -3890,11 +3890,11 @@
         <v>12.44</v>
       </c>
       <c r="E71" s="1">
-        <f>(L71-D71)/D71</f>
+        <f t="shared" si="6"/>
         <v>0.38263665594855306</v>
       </c>
       <c r="F71" s="1">
-        <f>(I71-L71)/L71</f>
+        <f t="shared" si="7"/>
         <v>8.4302325581395304E-2</v>
       </c>
       <c r="G71" s="2">
@@ -3916,11 +3916,11 @@
         <v>17.2</v>
       </c>
       <c r="M71" s="1">
-        <f>(I71-D71)/D71</f>
+        <f t="shared" si="8"/>
         <v>0.49919614147909963</v>
       </c>
       <c r="N71" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
@@ -3937,11 +3937,11 @@
         <v>28.28</v>
       </c>
       <c r="E72" s="1">
-        <f>(L72-D72)/D72</f>
+        <f t="shared" si="6"/>
         <v>-0.99964639321074955</v>
       </c>
       <c r="F72" s="1">
-        <f>(I72-L72)/L72</f>
+        <f t="shared" si="7"/>
         <v>1978.9999999999998</v>
       </c>
       <c r="G72" s="2">
@@ -3963,11 +3963,11 @@
         <v>0.01</v>
       </c>
       <c r="M72" s="1">
-        <f>(I72-D72)/D72</f>
+        <f t="shared" si="8"/>
         <v>-0.29985855728429989</v>
       </c>
       <c r="N72" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
@@ -3984,11 +3984,11 @@
         <v>15.63</v>
       </c>
       <c r="E73" s="1">
-        <f>(L73-D73)/D73</f>
+        <f t="shared" si="6"/>
         <v>-0.26039667306461933</v>
       </c>
       <c r="F73" s="1">
-        <f>(I73-L73)/L73</f>
+        <f t="shared" si="7"/>
         <v>0.81747404844290661</v>
       </c>
       <c r="G73" s="2">
@@ -4010,11 +4010,11 @@
         <v>11.56</v>
       </c>
       <c r="M73" s="1">
-        <f>(I73-D73)/D73</f>
+        <f t="shared" si="8"/>
         <v>0.34420985284708894</v>
       </c>
       <c r="N73" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
@@ -4031,11 +4031,11 @@
         <v>19.3</v>
       </c>
       <c r="E74" s="1">
-        <f>(L74-D74)/D74</f>
+        <f t="shared" si="6"/>
         <v>-0.36373056994818659</v>
       </c>
       <c r="F74" s="1">
-        <f>(I74-L74)/L74</f>
+        <f t="shared" si="7"/>
         <v>1.0871335504885993</v>
       </c>
       <c r="G74" s="2">
@@ -4057,11 +4057,11 @@
         <v>12.28</v>
       </c>
       <c r="M74" s="1">
-        <f>(I74-D74)/D74</f>
+        <f t="shared" si="8"/>
         <v>0.32797927461139886</v>
       </c>
       <c r="N74" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
@@ -4078,11 +4078,11 @@
         <v>37.69</v>
       </c>
       <c r="E75" s="1">
-        <f>(L75-D75)/D75</f>
+        <f t="shared" si="6"/>
         <v>-0.10533297957017775</v>
       </c>
       <c r="F75" s="1">
-        <f>(I75-L75)/L75</f>
+        <f t="shared" si="7"/>
         <v>-0.23161328588374849</v>
       </c>
       <c r="G75" s="2">
@@ -4104,11 +4104,11 @@
         <v>33.72</v>
       </c>
       <c r="M75" s="1">
-        <f>(I75-D75)/D75</f>
+        <f t="shared" si="8"/>
         <v>-0.31254974794375162</v>
       </c>
       <c r="N75" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
@@ -4125,11 +4125,11 @@
         <v>409</v>
       </c>
       <c r="E76" s="1">
-        <f>(L76-D76)/D76</f>
+        <f t="shared" si="6"/>
         <v>-0.78239608801955995</v>
       </c>
       <c r="F76" s="1">
-        <f>(I76-L76)/L76</f>
+        <f t="shared" si="7"/>
         <v>-0.69865168539325839</v>
       </c>
       <c r="G76" s="2">
@@ -4151,11 +4151,11 @@
         <v>89</v>
       </c>
       <c r="M76" s="1">
-        <f>(I76-D76)/D76</f>
+        <f t="shared" si="8"/>
         <v>-0.93442542787286065</v>
       </c>
       <c r="N76" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
@@ -4172,11 +4172,11 @@
         <v>43.09</v>
       </c>
       <c r="E77" s="1">
-        <f>(L77-D77)/D77</f>
+        <f t="shared" si="6"/>
         <v>-0.43049431422603857</v>
       </c>
       <c r="F77" s="1">
-        <f>(I77-L77)/L77</f>
+        <f t="shared" si="7"/>
         <v>0.31051344743276277</v>
       </c>
       <c r="G77" s="2">
@@ -4198,11 +4198,11 @@
         <v>24.54</v>
       </c>
       <c r="M77" s="1">
-        <f>(I77-D77)/D77</f>
+        <f t="shared" si="8"/>
         <v>-0.2536551404038061</v>
       </c>
       <c r="N77" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
@@ -4219,11 +4219,11 @@
         <v>8.91</v>
       </c>
       <c r="E78" s="1">
-        <f>(L78-D78)/D78</f>
+        <f t="shared" si="6"/>
         <v>0.70931537598204264</v>
       </c>
       <c r="F78" s="1">
-        <f>(I78-L78)/L78</f>
+        <f t="shared" si="7"/>
         <v>1.1982928430728823</v>
       </c>
       <c r="G78" s="1">
@@ -4245,11 +4245,11 @@
         <v>15.23</v>
       </c>
       <c r="M78" s="1">
-        <f>(I78-D78)/D78</f>
+        <f t="shared" si="8"/>
         <v>2.7575757575757573</v>
       </c>
       <c r="N78" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
@@ -4266,11 +4266,11 @@
         <v>78.84</v>
       </c>
       <c r="E79" s="1">
-        <f>(L79-D79)/D79</f>
+        <f t="shared" si="6"/>
         <v>2.2831050228309564E-3</v>
       </c>
       <c r="F79" s="1">
-        <f>(I79-L79)/L79</f>
+        <f t="shared" si="7"/>
         <v>-0.52746140217666404</v>
       </c>
       <c r="G79" s="1">
@@ -4292,11 +4292,11 @@
         <v>79.02</v>
       </c>
       <c r="M79" s="1">
-        <f>(I79-D79)/D79</f>
+        <f t="shared" si="8"/>
         <v>-0.52638254693049213</v>
       </c>
       <c r="N79" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
@@ -4313,11 +4313,11 @@
         <v>50.68</v>
       </c>
       <c r="E80" s="1">
-        <f>(L80-D80)/D80</f>
+        <f t="shared" si="6"/>
         <v>0.23756906077348064</v>
       </c>
       <c r="F80" s="1">
-        <f>(I80-L80)/L80</f>
+        <f t="shared" si="7"/>
         <v>-0.12531887755102039</v>
       </c>
       <c r="G80" s="2">
@@ -4339,11 +4339,11 @@
         <v>62.72</v>
       </c>
       <c r="M80" s="1">
-        <f>(I80-D80)/D80</f>
+        <f t="shared" si="8"/>
         <v>8.2478295185477501E-2</v>
       </c>
       <c r="N80" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
@@ -4360,11 +4360,11 @@
         <v>118.28</v>
       </c>
       <c r="E81" s="1">
-        <f>(L81-D81)/D81</f>
+        <f t="shared" si="6"/>
         <v>-0.51386540412580317</v>
       </c>
       <c r="F81" s="1">
-        <f>(I81-L81)/L81</f>
+        <f t="shared" si="7"/>
         <v>3.9826086956521727E-2</v>
       </c>
       <c r="G81" s="2">
@@ -4386,11 +4386,11 @@
         <v>57.5</v>
       </c>
       <c r="M81" s="1">
-        <f>(I81-D81)/D81</f>
+        <f t="shared" si="8"/>
         <v>-0.49450456543794385</v>
       </c>
       <c r="N81" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
@@ -4407,11 +4407,11 @@
         <v>142.37</v>
       </c>
       <c r="E82" s="1">
-        <f>(L82-D82)/D82</f>
+        <f t="shared" si="6"/>
         <v>4.4602093137599171E-2</v>
       </c>
       <c r="F82" s="1">
-        <f>(I82-L82)/L82</f>
+        <f t="shared" si="7"/>
         <v>-3.0661646046261447E-2</v>
       </c>
       <c r="G82" s="1">
@@ -4433,11 +4433,11 @@
         <v>148.72</v>
       </c>
       <c r="M82" s="1">
-        <f>(I82-D82)/D82</f>
+        <f t="shared" si="8"/>
         <v>1.2572873498630273E-2</v>
       </c>
       <c r="N82" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
@@ -4454,11 +4454,11 @@
         <v>309.26</v>
       </c>
       <c r="E83" s="1">
-        <f>(L83-D83)/D83</f>
+        <f t="shared" si="6"/>
         <v>-0.34650455927051671</v>
       </c>
       <c r="F83" s="1">
-        <f>(I83-L83)/L83</f>
+        <f t="shared" si="7"/>
         <v>-0.26026719445818902</v>
       </c>
       <c r="G83" s="2">
@@ -4480,11 +4480,11 @@
         <v>202.1</v>
       </c>
       <c r="M83" s="1">
-        <f>(I83-D83)/D83</f>
+        <f t="shared" si="8"/>
         <v>-0.51658798422039709</v>
       </c>
       <c r="N83" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
@@ -4501,11 +4501,11 @@
         <v>263.91000000000003</v>
       </c>
       <c r="E84" s="1">
-        <f>(L84-D84)/D84</f>
+        <f t="shared" si="6"/>
         <v>0.14148762835815229</v>
       </c>
       <c r="F84" s="1">
-        <f>(I84-L84)/L84</f>
+        <f t="shared" si="7"/>
         <v>-0.49921991701244811</v>
       </c>
       <c r="G84" s="2">
@@ -4527,11 +4527,11 @@
         <v>301.25</v>
       </c>
       <c r="M84" s="1">
-        <f>(I84-D84)/D84</f>
+        <f t="shared" si="8"/>
         <v>-0.42836573074154066</v>
       </c>
       <c r="N84" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
@@ -4548,11 +4548,11 @@
         <v>252.47</v>
       </c>
       <c r="E85" s="1">
-        <f>(L85-D85)/D85</f>
+        <f t="shared" si="6"/>
         <v>-0.40024557373153252</v>
       </c>
       <c r="F85" s="1">
-        <f>(I85-L85)/L85</f>
+        <f t="shared" si="7"/>
         <v>0.51466120723814568</v>
       </c>
       <c r="G85" s="2">
@@ -4574,11 +4574,11 @@
         <v>151.41999999999999</v>
       </c>
       <c r="M85" s="1">
-        <f>(I85-D85)/D85</f>
+        <f t="shared" si="8"/>
         <v>-9.157523666178162E-2</v>
       </c>
       <c r="N85" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -4606,7 +4606,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -4615,7 +4615,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>3</v>
@@ -4636,7 +4636,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -4671,7 +4671,7 @@
         <v>2.72</v>
       </c>
       <c r="K2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -4706,7 +4706,7 @@
         <v>0.7</v>
       </c>
       <c r="K3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -4741,7 +4741,7 @@
         <v>0.9</v>
       </c>
       <c r="K4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -4776,7 +4776,7 @@
         <v>1.2</v>
       </c>
       <c r="K5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -4811,7 +4811,7 @@
         <v>0.62</v>
       </c>
       <c r="K6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -4846,7 +4846,7 @@
         <v>4.5199999999999996</v>
       </c>
       <c r="K7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -4881,7 +4881,7 @@
         <v>0.01</v>
       </c>
       <c r="K8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -4916,7 +4916,7 @@
         <v>0.01</v>
       </c>
       <c r="K9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -4951,7 +4951,7 @@
         <v>0.52</v>
       </c>
       <c r="K10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -4986,7 +4986,7 @@
         <v>0.6</v>
       </c>
       <c r="K11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -5021,7 +5021,7 @@
         <v>5.33</v>
       </c>
       <c r="K12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -5056,7 +5056,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="K13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -5091,7 +5091,7 @@
         <v>0.42</v>
       </c>
       <c r="K14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -5126,7 +5126,7 @@
         <v>0.37</v>
       </c>
       <c r="K15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -5161,7 +5161,7 @@
         <v>0.66</v>
       </c>
       <c r="K16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -5196,7 +5196,7 @@
         <v>21.29</v>
       </c>
       <c r="K17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -5231,7 +5231,7 @@
         <v>0.26</v>
       </c>
       <c r="K18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -5266,7 +5266,7 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="K19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -5301,7 +5301,7 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="K20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -5336,7 +5336,7 @@
         <v>10.79</v>
       </c>
       <c r="K21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -5371,7 +5371,7 @@
         <v>2.19</v>
       </c>
       <c r="K22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -5406,7 +5406,7 @@
         <v>1.47</v>
       </c>
       <c r="K23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -5441,7 +5441,7 @@
         <v>0.3</v>
       </c>
       <c r="K24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -5476,7 +5476,7 @@
         <v>8.35</v>
       </c>
       <c r="K25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -5511,7 +5511,7 @@
         <v>0.34</v>
       </c>
       <c r="K26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -5546,7 +5546,7 @@
         <v>0.3</v>
       </c>
       <c r="K27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -5581,7 +5581,7 @@
         <v>9.58</v>
       </c>
       <c r="K28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -5616,7 +5616,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="K29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -5651,7 +5651,7 @@
         <v>12.5</v>
       </c>
       <c r="K30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
@@ -5686,7 +5686,7 @@
         <v>4.3</v>
       </c>
       <c r="K31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
@@ -5721,7 +5721,7 @@
         <v>29.96</v>
       </c>
       <c r="K32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
@@ -5756,7 +5756,7 @@
         <v>20.84</v>
       </c>
       <c r="K33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
@@ -5791,7 +5791,7 @@
         <v>16.03</v>
       </c>
       <c r="K34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
@@ -5826,7 +5826,7 @@
         <v>4.17</v>
       </c>
       <c r="K35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
@@ -5861,7 +5861,7 @@
         <v>6.26</v>
       </c>
       <c r="K36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
@@ -5896,7 +5896,7 @@
         <v>3.11</v>
       </c>
       <c r="K37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
@@ -5931,7 +5931,7 @@
         <v>4.28</v>
       </c>
       <c r="K38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
@@ -5966,7 +5966,7 @@
         <v>0.97</v>
       </c>
       <c r="K39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
@@ -6001,7 +6001,7 @@
         <v>0.81</v>
       </c>
       <c r="K40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
@@ -6036,7 +6036,7 @@
         <v>1.4</v>
       </c>
       <c r="K41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
@@ -6071,7 +6071,7 @@
         <v>1.76</v>
       </c>
       <c r="K42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
@@ -6106,7 +6106,7 @@
         <v>0.6</v>
       </c>
       <c r="K43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
@@ -6141,7 +6141,7 @@
         <v>0.9</v>
       </c>
       <c r="K44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
@@ -6176,7 +6176,7 @@
         <v>0.4</v>
       </c>
       <c r="K45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -6189,14 +6189,14 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="A38" sqref="A38:XFD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -6205,7 +6205,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>3</v>
@@ -6226,1533 +6226,1533 @@
         <v>9</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="10">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B2" s="10">
-        <v>2.11</v>
+        <v>24.71</v>
       </c>
       <c r="C2" s="10">
-        <v>0.13</v>
+        <v>0.47</v>
       </c>
       <c r="D2" s="11">
         <f>(H2-C2)/C2</f>
-        <v>-0.92307692307692313</v>
+        <v>0.27659574468085107</v>
       </c>
       <c r="E2" s="11">
         <f>(J2-C2)/C2</f>
-        <v>-0.92307692307692313</v>
+        <v>0.12765957446808524</v>
       </c>
       <c r="F2" s="11">
         <f>(J2-H2)/H2</f>
-        <v>0</v>
+        <v>-0.11666666666666659</v>
       </c>
       <c r="G2" s="10">
-        <v>0.73</v>
+        <v>7.8</v>
       </c>
       <c r="H2" s="10">
-        <v>0.01</v>
+        <v>0.6</v>
       </c>
       <c r="I2" s="10">
-        <v>0.71</v>
+        <v>9.6300000000000008</v>
       </c>
       <c r="J2" s="10">
-        <v>0.01</v>
+        <v>0.53</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B3" s="10">
-        <v>3.04</v>
+        <v>37.869999999999997</v>
       </c>
       <c r="C3" s="10">
-        <v>0.17</v>
+        <v>0.52</v>
       </c>
       <c r="D3" s="11">
         <f>(H3-C3)/C3</f>
-        <v>-0.35294117647058826</v>
+        <v>1.0576923076923077</v>
       </c>
       <c r="E3" s="11">
         <f>(J3-C3)/C3</f>
-        <v>-5.8823529411764754E-2</v>
+        <v>0.98076923076923073</v>
       </c>
       <c r="F3" s="11">
         <f>(J3-H3)/H3</f>
-        <v>0.45454545454545459</v>
+        <v>-3.738317757009349E-2</v>
       </c>
       <c r="G3" s="10">
-        <v>1.41</v>
-      </c>
-      <c r="H3" s="12">
-        <v>0.11</v>
+        <v>15.58</v>
+      </c>
+      <c r="H3" s="10">
+        <v>1.07</v>
       </c>
       <c r="I3" s="10">
-        <v>1.73</v>
+        <v>20.71</v>
       </c>
       <c r="J3" s="10">
-        <v>0.16</v>
+        <v>1.03</v>
       </c>
       <c r="K3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B4" s="10">
-        <v>5.47</v>
+        <v>60.64</v>
       </c>
       <c r="C4" s="10">
-        <v>0.21</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="D4" s="11">
         <f>(H4-C4)/C4</f>
-        <v>9.523809523809533E-2</v>
+        <v>-5.4726368159203925E-2</v>
       </c>
       <c r="E4" s="11">
         <f>(J4-C4)/C4</f>
-        <v>-0.19047619047619038</v>
+        <v>0.14427860696517417</v>
       </c>
       <c r="F4" s="11">
         <f>(J4-H4)/H4</f>
-        <v>-0.2608695652173913</v>
+        <v>0.21052631578947364</v>
       </c>
       <c r="G4" s="10">
-        <v>3.2</v>
+        <v>22.12</v>
       </c>
       <c r="H4" s="10">
-        <v>0.23</v>
+        <v>1.9</v>
       </c>
       <c r="I4" s="10">
-        <v>3.26</v>
+        <v>27.15</v>
       </c>
       <c r="J4" s="10">
-        <v>0.17</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="K4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B5" s="10">
-        <v>1.44</v>
+        <v>1.06</v>
       </c>
       <c r="C5" s="10">
-        <v>0.26</v>
+        <v>0.34</v>
       </c>
       <c r="D5" s="11">
         <f>(H5-C5)/C5</f>
-        <v>-0.65384615384615385</v>
+        <v>2.9411764705882214E-2</v>
       </c>
       <c r="E5" s="11">
         <f>(J5-C5)/C5</f>
-        <v>-0.30769230769230776</v>
+        <v>-0.23529411764705885</v>
       </c>
       <c r="F5" s="11">
         <f>(J5-H5)/H5</f>
-        <v>1</v>
+        <v>-0.25714285714285706</v>
       </c>
       <c r="G5" s="10">
-        <v>0.94</v>
-      </c>
-      <c r="H5" s="12">
-        <v>0.09</v>
+        <v>1.05</v>
+      </c>
+      <c r="H5" s="10">
+        <v>0.35</v>
       </c>
       <c r="I5" s="10">
-        <v>1.06</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="J5" s="10">
-        <v>0.18</v>
+        <v>0.26</v>
       </c>
       <c r="K5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B6" s="10">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="C6" s="10">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="D6" s="11">
         <f>(H6-C6)/C6</f>
-        <v>8.3333333333333412E-2</v>
+        <v>0.54545454545454553</v>
       </c>
       <c r="E6" s="11">
         <f>(J6-C6)/C6</f>
-        <v>-0.1666666666666666</v>
+        <v>0.40909090909090906</v>
       </c>
       <c r="F6" s="11">
         <f>(J6-H6)/H6</f>
-        <v>-0.23076923076923075</v>
+        <v>-8.8235294117647134E-2</v>
       </c>
       <c r="G6" s="10">
-        <v>0.15</v>
+        <v>1.6</v>
       </c>
       <c r="H6" s="10">
-        <v>0.26</v>
+        <v>0.34</v>
       </c>
       <c r="I6" s="10">
-        <v>1.38</v>
+        <v>1.26</v>
       </c>
       <c r="J6" s="10">
-        <v>0.2</v>
+        <v>0.31</v>
       </c>
       <c r="K6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="B7" s="10">
-        <v>2.97</v>
+        <v>2.88</v>
       </c>
       <c r="C7" s="10">
-        <v>0.22</v>
+        <v>1.9</v>
       </c>
       <c r="D7" s="11">
         <f>(H7-C7)/C7</f>
-        <v>-0.27272727272727271</v>
+        <v>5.2631578947368472E-3</v>
       </c>
       <c r="E7" s="11">
         <f>(J7-C7)/C7</f>
-        <v>-4.5454545454545497E-2</v>
+        <v>-5.78947368421052E-2</v>
       </c>
       <c r="F7" s="11">
         <f>(J7-H7)/H7</f>
-        <v>0.31249999999999994</v>
+        <v>-6.2827225130889994E-2</v>
       </c>
       <c r="G7" s="10">
-        <v>3.71</v>
+        <v>3.05</v>
       </c>
       <c r="H7" s="10">
-        <v>0.16</v>
+        <v>1.91</v>
       </c>
       <c r="I7" s="10">
-        <v>3.55</v>
+        <v>2.82</v>
       </c>
       <c r="J7" s="10">
-        <v>0.21</v>
+        <v>1.79</v>
       </c>
       <c r="K7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" s="10">
-        <v>6.16</v>
+        <v>4.22</v>
       </c>
       <c r="C8" s="10">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="D8" s="11">
         <f>(H8-C8)/C8</f>
-        <v>0</v>
+        <v>0.23529411764705868</v>
       </c>
       <c r="E8" s="11">
         <f>(J8-C8)/C8</f>
-        <v>0.16666666666666666</v>
+        <v>0.3529411764705882</v>
       </c>
       <c r="F8" s="11">
         <f>(J8-H8)/H8</f>
-        <v>0.16666666666666666</v>
+        <v>9.523809523809533E-2</v>
       </c>
       <c r="G8" s="10">
-        <v>4.57</v>
+        <v>4.2</v>
       </c>
       <c r="H8" s="10">
-        <v>0.18</v>
+        <v>0.21</v>
       </c>
       <c r="I8" s="10">
-        <v>3.75</v>
+        <v>3.66</v>
       </c>
       <c r="J8" s="10">
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
       <c r="K8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B9" s="10">
-        <v>1.29</v>
+        <v>15.39</v>
       </c>
       <c r="C9" s="10">
-        <v>0.23</v>
+        <v>1.57</v>
       </c>
       <c r="D9" s="11">
         <f>(H9-C9)/C9</f>
-        <v>-0.17391304347826089</v>
+        <v>0.16560509554140126</v>
       </c>
       <c r="E9" s="11">
         <f>(J9-C9)/C9</f>
-        <v>-4.3478260869565251E-2</v>
+        <v>0.31210191082802546</v>
       </c>
       <c r="F9" s="11">
         <f>(J9-H9)/H9</f>
-        <v>0.15789473684210525</v>
+        <v>0.12568306010928959</v>
       </c>
       <c r="G9" s="10">
-        <v>1.73</v>
+        <v>17.760000000000002</v>
       </c>
       <c r="H9" s="10">
-        <v>0.19</v>
+        <v>1.83</v>
       </c>
       <c r="I9" s="10">
-        <v>1.6</v>
+        <v>13.25</v>
       </c>
       <c r="J9" s="10">
-        <v>0.22</v>
+        <v>2.06</v>
       </c>
       <c r="K9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B10" s="10">
-        <v>4.22</v>
+        <v>5.47</v>
       </c>
       <c r="C10" s="10">
-        <v>0.17</v>
+        <v>0.21</v>
       </c>
       <c r="D10" s="11">
         <f>(H10-C10)/C10</f>
-        <v>0.23529411764705868</v>
+        <v>9.523809523809533E-2</v>
       </c>
       <c r="E10" s="11">
         <f>(J10-C10)/C10</f>
-        <v>0.3529411764705882</v>
+        <v>-0.19047619047619038</v>
       </c>
       <c r="F10" s="11">
         <f>(J10-H10)/H10</f>
-        <v>9.523809523809533E-2</v>
+        <v>-0.2608695652173913</v>
       </c>
       <c r="G10" s="10">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="H10" s="10">
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
       <c r="I10" s="10">
-        <v>3.66</v>
+        <v>3.26</v>
       </c>
       <c r="J10" s="10">
-        <v>0.23</v>
+        <v>0.17</v>
       </c>
       <c r="K10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B11" s="10">
-        <v>11.04</v>
+        <v>6.16</v>
       </c>
       <c r="C11" s="10">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
       <c r="D11" s="11">
         <f>(H11-C11)/C11</f>
-        <v>9.090909090909087E-2</v>
+        <v>0</v>
       </c>
       <c r="E11" s="11">
         <f>(J11-C11)/C11</f>
-        <v>9.090909090909087E-2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="F11" s="11">
         <f>(J11-H11)/H11</f>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="G11" s="10">
-        <v>7.78</v>
+        <v>4.57</v>
       </c>
       <c r="H11" s="10">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
       <c r="I11" s="10">
-        <v>11.55</v>
+        <v>3.75</v>
       </c>
       <c r="J11" s="10">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="K11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12" s="10">
-        <v>3.36</v>
+        <v>3.62</v>
       </c>
       <c r="C12" s="10">
-        <v>0.32</v>
+        <v>0.2</v>
       </c>
       <c r="D12" s="11">
         <f>(H12-C12)/C12</f>
-        <v>-0.15624999999999997</v>
+        <v>0.40000000000000008</v>
       </c>
       <c r="E12" s="11">
         <f>(J12-C12)/C12</f>
-        <v>-0.1875</v>
+        <v>0.49999999999999989</v>
       </c>
       <c r="F12" s="11">
         <f>(J12-H12)/H12</f>
-        <v>-3.703703703703707E-2</v>
+        <v>7.1428571428571286E-2</v>
       </c>
       <c r="G12" s="10">
-        <v>2.64</v>
+        <v>3.76</v>
       </c>
       <c r="H12" s="10">
-        <v>0.27</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="I12" s="10">
-        <v>2.73</v>
+        <v>1.93</v>
       </c>
       <c r="J12" s="10">
-        <v>0.26</v>
+        <v>0.3</v>
       </c>
       <c r="K12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B13" s="10">
-        <v>1.06</v>
+        <v>11.13</v>
       </c>
       <c r="C13" s="10">
-        <v>0.34</v>
+        <v>0.42</v>
       </c>
       <c r="D13" s="11">
         <f>(H13-C13)/C13</f>
-        <v>2.9411764705882214E-2</v>
+        <v>0.28571428571428586</v>
       </c>
       <c r="E13" s="11">
         <f>(J13-C13)/C13</f>
-        <v>-0.23529411764705885</v>
+        <v>-7.1428571428571369E-2</v>
       </c>
       <c r="F13" s="11">
         <f>(J13-H13)/H13</f>
-        <v>-0.25714285714285706</v>
+        <v>-0.27777777777777779</v>
       </c>
       <c r="G13" s="10">
-        <v>1.05</v>
+        <v>12.12</v>
       </c>
       <c r="H13" s="10">
-        <v>0.35</v>
+        <v>0.54</v>
       </c>
       <c r="I13" s="10">
-        <v>1.0900000000000001</v>
+        <v>11.05</v>
       </c>
       <c r="J13" s="10">
-        <v>0.26</v>
+        <v>0.39</v>
       </c>
       <c r="K13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="10">
-        <v>4.0199999999999996</v>
+        <v>5.8</v>
       </c>
       <c r="C14" s="10">
-        <v>0.3</v>
+        <v>0.39</v>
       </c>
       <c r="D14" s="11">
         <f>(H14-C14)/C14</f>
-        <v>-6.6666666666666541E-2</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E14" s="11">
         <f>(J14-C14)/C14</f>
-        <v>-9.9999999999999908E-2</v>
+        <v>5.1282051282051183E-2</v>
       </c>
       <c r="F14" s="11">
         <f>(J14-H14)/H14</f>
-        <v>-3.571428571428574E-2</v>
+        <v>-0.36923076923076931</v>
       </c>
       <c r="G14" s="10">
-        <v>3.85</v>
+        <v>7.32</v>
       </c>
       <c r="H14" s="10">
-        <v>0.28000000000000003</v>
+        <v>0.65</v>
       </c>
       <c r="I14" s="10">
-        <v>3.65</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="J14" s="10">
-        <v>0.27</v>
+        <v>0.41</v>
       </c>
       <c r="K14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="10">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B15" s="10">
-        <v>3.64</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="C15" s="10">
-        <v>0.21</v>
+        <v>0.39</v>
       </c>
       <c r="D15" s="11">
         <f>(H15-C15)/C15</f>
-        <v>0.33333333333333354</v>
+        <v>0.69230769230769229</v>
       </c>
       <c r="E15" s="11">
         <f>(J15-C15)/C15</f>
-        <v>0.28571428571428586</v>
+        <v>0.12820512820512817</v>
       </c>
       <c r="F15" s="11">
         <f>(J15-H15)/H15</f>
-        <v>-3.571428571428574E-2</v>
+        <v>-0.33333333333333337</v>
       </c>
       <c r="G15" s="10">
-        <v>3.63</v>
+        <v>1.62</v>
       </c>
       <c r="H15" s="10">
-        <v>0.28000000000000003</v>
+        <v>0.66</v>
       </c>
       <c r="I15" s="10">
-        <v>4.4000000000000004</v>
+        <v>2.17</v>
       </c>
       <c r="J15" s="10">
-        <v>0.27</v>
+        <v>0.44</v>
       </c>
       <c r="K15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B16" s="10">
-        <v>3.62</v>
+        <v>3.36</v>
       </c>
       <c r="C16" s="10">
-        <v>0.2</v>
+        <v>0.32</v>
       </c>
       <c r="D16" s="11">
         <f>(H16-C16)/C16</f>
-        <v>0.40000000000000008</v>
+        <v>-0.15624999999999997</v>
       </c>
       <c r="E16" s="11">
         <f>(J16-C16)/C16</f>
-        <v>0.49999999999999989</v>
+        <v>-0.1875</v>
       </c>
       <c r="F16" s="11">
         <f>(J16-H16)/H16</f>
-        <v>7.1428571428571286E-2</v>
+        <v>-3.703703703703707E-2</v>
       </c>
       <c r="G16" s="10">
-        <v>3.76</v>
+        <v>2.64</v>
       </c>
       <c r="H16" s="10">
-        <v>0.28000000000000003</v>
+        <v>0.27</v>
       </c>
       <c r="I16" s="10">
-        <v>1.93</v>
+        <v>2.73</v>
       </c>
       <c r="J16" s="10">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
       <c r="K16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="10">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17" s="10">
-        <v>2.1800000000000002</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="C17" s="10">
-        <v>0.39</v>
+        <v>0.3</v>
       </c>
       <c r="D17" s="11">
         <f>(H17-C17)/C17</f>
-        <v>-0.2564102564102565</v>
+        <v>-6.6666666666666541E-2</v>
       </c>
       <c r="E17" s="11">
         <f>(J17-C17)/C17</f>
-        <v>-0.23076923076923084</v>
+        <v>-9.9999999999999908E-2</v>
       </c>
       <c r="F17" s="11">
         <f>(J17-H17)/H17</f>
-        <v>3.4482758620689689E-2</v>
+        <v>-3.571428571428574E-2</v>
       </c>
       <c r="G17" s="10">
-        <v>1.98</v>
+        <v>3.85</v>
       </c>
       <c r="H17" s="10">
-        <v>0.28999999999999998</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="I17" s="10">
-        <v>2.12</v>
+        <v>3.65</v>
       </c>
       <c r="J17" s="10">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="K17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="10">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B18" s="10">
-        <v>1.97</v>
+        <v>13.62</v>
       </c>
       <c r="C18" s="10">
-        <v>0.38</v>
+        <v>0.93</v>
       </c>
       <c r="D18" s="11">
         <f>(H18-C18)/C18</f>
-        <v>0.18421052631578949</v>
+        <v>-5.3763440860215096E-2</v>
       </c>
       <c r="E18" s="11">
         <f>(J18-C18)/C18</f>
-        <v>-0.21052631578947373</v>
+        <v>-2.1505376344086041E-2</v>
       </c>
       <c r="F18" s="11">
         <f>(J18-H18)/H18</f>
-        <v>-0.33333333333333337</v>
+        <v>3.4090909090909123E-2</v>
       </c>
       <c r="G18" s="10">
-        <v>1.44</v>
+        <v>14.58</v>
       </c>
       <c r="H18" s="10">
-        <v>0.45</v>
+        <v>0.88</v>
       </c>
       <c r="I18" s="10">
-        <v>1.63</v>
+        <v>11.61</v>
       </c>
       <c r="J18" s="10">
-        <v>0.3</v>
+        <v>0.91</v>
       </c>
       <c r="K18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B19" s="10">
-        <v>1.47</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="C19" s="10">
-        <v>0.22</v>
+        <v>0.39</v>
       </c>
       <c r="D19" s="11">
         <f>(H19-C19)/C19</f>
-        <v>0.54545454545454553</v>
+        <v>-0.2564102564102565</v>
       </c>
       <c r="E19" s="11">
         <f>(J19-C19)/C19</f>
-        <v>0.40909090909090906</v>
+        <v>-0.23076923076923084</v>
       </c>
       <c r="F19" s="11">
         <f>(J19-H19)/H19</f>
-        <v>-8.8235294117647134E-2</v>
+        <v>3.4482758620689689E-2</v>
       </c>
       <c r="G19" s="10">
-        <v>1.6</v>
+        <v>1.98</v>
       </c>
       <c r="H19" s="10">
-        <v>0.34</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="I19" s="10">
-        <v>1.26</v>
+        <v>2.12</v>
       </c>
       <c r="J19" s="10">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="K19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B20" s="10">
-        <v>14.56</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="C20" s="10">
-        <v>0.35</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="D20" s="11">
         <f>(H20-C20)/C20</f>
-        <v>-2.8571428571428439E-2</v>
+        <v>0.12844036697247696</v>
       </c>
       <c r="E20" s="11">
         <f>(J20-C20)/C20</f>
-        <v>-8.5714285714285632E-2</v>
+        <v>-9.174311926605512E-2</v>
       </c>
       <c r="F20" s="11">
         <f>(J20-H20)/H20</f>
-        <v>-5.8823529411764754E-2</v>
+        <v>-0.1951219512195122</v>
       </c>
       <c r="G20" s="10">
-        <v>7.43</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="H20" s="10">
-        <v>0.34</v>
+        <v>1.23</v>
       </c>
       <c r="I20" s="10">
-        <v>10.01</v>
+        <v>4.33</v>
       </c>
       <c r="J20" s="10">
-        <v>0.32</v>
+        <v>0.99</v>
       </c>
       <c r="K20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B21" s="10">
-        <v>3.64</v>
+        <v>8.14</v>
       </c>
       <c r="C21" s="10">
-        <v>0.22</v>
+        <v>1.82</v>
       </c>
       <c r="D21" s="11">
         <f>(H21-C21)/C21</f>
-        <v>0.18181818181818185</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="E21" s="11">
         <f>(J21-C21)/C21</f>
-        <v>0.50000000000000011</v>
+        <v>0.67582417582417564</v>
       </c>
       <c r="F21" s="11">
         <f>(J21-H21)/H21</f>
-        <v>0.26923076923076927</v>
+        <v>-6.153846153846159E-2</v>
       </c>
       <c r="G21" s="10">
-        <v>1.6</v>
+        <v>5.91</v>
       </c>
       <c r="H21" s="10">
-        <v>0.26</v>
+        <v>3.25</v>
       </c>
       <c r="I21" s="10">
-        <v>2.09</v>
+        <v>6.34</v>
       </c>
       <c r="J21" s="10">
-        <v>0.33</v>
+        <v>3.05</v>
       </c>
       <c r="K21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B22" s="10">
-        <v>5.23</v>
+        <v>1.29</v>
       </c>
       <c r="C22" s="10">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="D22" s="11">
         <f>(H22-C22)/C22</f>
-        <v>4.1666666666666706E-2</v>
+        <v>-0.17391304347826089</v>
       </c>
       <c r="E22" s="11">
         <f>(J22-C22)/C22</f>
-        <v>0.4166666666666668</v>
+        <v>-4.3478260869565251E-2</v>
       </c>
       <c r="F22" s="11">
         <f>(J22-H22)/H22</f>
-        <v>0.3600000000000001</v>
+        <v>0.15789473684210525</v>
       </c>
       <c r="G22" s="10">
-        <v>2.08</v>
+        <v>1.73</v>
       </c>
       <c r="H22" s="10">
-        <v>0.25</v>
+        <v>0.19</v>
       </c>
       <c r="I22" s="10">
-        <v>3.99</v>
+        <v>1.6</v>
       </c>
       <c r="J22" s="10">
-        <v>0.34</v>
+        <v>0.22</v>
       </c>
       <c r="K22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="10">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B23" s="10">
-        <v>6.2</v>
+        <v>2.25</v>
       </c>
       <c r="C23" s="10">
-        <v>0.22</v>
+        <v>0.61</v>
       </c>
       <c r="D23" s="11">
         <f>(H23-C23)/C23</f>
-        <v>3.0909090909090913</v>
+        <v>-0.42622950819672134</v>
       </c>
       <c r="E23" s="11">
         <f>(J23-C23)/C23</f>
-        <v>0.72727272727272729</v>
+        <v>-0.14754098360655732</v>
       </c>
       <c r="F23" s="11">
         <f>(J23-H23)/H23</f>
-        <v>-0.57777777777777783</v>
+        <v>0.48571428571428588</v>
       </c>
       <c r="G23" s="10">
-        <v>1.0900000000000001</v>
+        <v>1.95</v>
       </c>
       <c r="H23" s="10">
-        <v>0.9</v>
+        <v>0.35</v>
       </c>
       <c r="I23" s="10">
-        <v>2.2200000000000002</v>
+        <v>1.95</v>
       </c>
       <c r="J23" s="10">
-        <v>0.38</v>
+        <v>0.52</v>
       </c>
       <c r="K23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B24" s="10">
-        <v>11.13</v>
+        <v>2.11</v>
       </c>
       <c r="C24" s="10">
-        <v>0.42</v>
+        <v>0.13</v>
       </c>
       <c r="D24" s="11">
         <f>(H24-C24)/C24</f>
-        <v>0.28571428571428586</v>
+        <v>-0.92307692307692313</v>
       </c>
       <c r="E24" s="11">
         <f>(J24-C24)/C24</f>
-        <v>-7.1428571428571369E-2</v>
+        <v>-0.92307692307692313</v>
       </c>
       <c r="F24" s="11">
         <f>(J24-H24)/H24</f>
-        <v>-0.27777777777777779</v>
+        <v>0</v>
       </c>
       <c r="G24" s="10">
-        <v>12.12</v>
+        <v>0.73</v>
       </c>
       <c r="H24" s="10">
-        <v>0.54</v>
+        <v>0.01</v>
       </c>
       <c r="I24" s="10">
-        <v>11.05</v>
+        <v>0.71</v>
       </c>
       <c r="J24" s="10">
-        <v>0.39</v>
+        <v>0.01</v>
       </c>
       <c r="K24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B25" s="10">
-        <v>5.8</v>
+        <v>3.04</v>
       </c>
       <c r="C25" s="10">
-        <v>0.39</v>
+        <v>0.17</v>
       </c>
       <c r="D25" s="11">
         <f>(H25-C25)/C25</f>
-        <v>0.66666666666666663</v>
+        <v>-0.35294117647058826</v>
       </c>
       <c r="E25" s="11">
         <f>(J25-C25)/C25</f>
-        <v>5.1282051282051183E-2</v>
+        <v>-5.8823529411764754E-2</v>
       </c>
       <c r="F25" s="11">
         <f>(J25-H25)/H25</f>
-        <v>-0.36923076923076931</v>
+        <v>0.45454545454545459</v>
       </c>
       <c r="G25" s="10">
-        <v>7.32</v>
-      </c>
-      <c r="H25" s="10">
-        <v>0.65</v>
+        <v>1.41</v>
+      </c>
+      <c r="H25" s="12">
+        <v>0.11</v>
       </c>
       <c r="I25" s="10">
-        <v>5.0599999999999996</v>
+        <v>1.73</v>
       </c>
       <c r="J25" s="10">
-        <v>0.41</v>
+        <v>0.16</v>
       </c>
       <c r="K25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="10">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B26" s="10">
-        <v>2.5099999999999998</v>
+        <v>1.44</v>
       </c>
       <c r="C26" s="10">
-        <v>0.39</v>
+        <v>0.26</v>
       </c>
       <c r="D26" s="11">
         <f>(H26-C26)/C26</f>
-        <v>0.69230769230769229</v>
+        <v>-0.65384615384615385</v>
       </c>
       <c r="E26" s="11">
         <f>(J26-C26)/C26</f>
-        <v>0.12820512820512817</v>
+        <v>-0.30769230769230776</v>
       </c>
       <c r="F26" s="11">
         <f>(J26-H26)/H26</f>
-        <v>-0.33333333333333337</v>
+        <v>1</v>
       </c>
       <c r="G26" s="10">
-        <v>1.62</v>
-      </c>
-      <c r="H26" s="10">
-        <v>0.66</v>
+        <v>0.94</v>
+      </c>
+      <c r="H26" s="12">
+        <v>0.09</v>
       </c>
       <c r="I26" s="10">
-        <v>2.17</v>
+        <v>1.06</v>
       </c>
       <c r="J26" s="10">
-        <v>0.44</v>
+        <v>0.18</v>
       </c>
       <c r="K26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="10">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B27" s="10">
-        <v>2.25</v>
+        <v>5.4</v>
       </c>
       <c r="C27" s="10">
-        <v>0.61</v>
+        <v>0.77</v>
       </c>
       <c r="D27" s="11">
         <f>(H27-C27)/C27</f>
-        <v>-0.42622950819672134</v>
+        <v>1.2987012987012998E-2</v>
       </c>
       <c r="E27" s="11">
         <f>(J27-C27)/C27</f>
-        <v>-0.14754098360655732</v>
+        <v>0.23376623376623368</v>
       </c>
       <c r="F27" s="11">
         <f>(J27-H27)/H27</f>
-        <v>0.48571428571428588</v>
+        <v>0.21794871794871784</v>
       </c>
       <c r="G27" s="10">
-        <v>1.95</v>
+        <v>7.1</v>
       </c>
       <c r="H27" s="10">
-        <v>0.35</v>
+        <v>0.78</v>
       </c>
       <c r="I27" s="10">
-        <v>1.95</v>
+        <v>6.52</v>
       </c>
       <c r="J27" s="10">
-        <v>0.52</v>
+        <v>0.95</v>
       </c>
       <c r="K27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="10">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B28" s="10">
-        <v>24.71</v>
+        <v>3.64</v>
       </c>
       <c r="C28" s="10">
-        <v>0.47</v>
+        <v>0.21</v>
       </c>
       <c r="D28" s="11">
         <f>(H28-C28)/C28</f>
-        <v>0.27659574468085107</v>
+        <v>0.33333333333333354</v>
       </c>
       <c r="E28" s="11">
         <f>(J28-C28)/C28</f>
-        <v>0.12765957446808524</v>
+        <v>0.28571428571428586</v>
       </c>
       <c r="F28" s="11">
         <f>(J28-H28)/H28</f>
-        <v>-0.11666666666666659</v>
+        <v>-3.571428571428574E-2</v>
       </c>
       <c r="G28" s="10">
-        <v>7.8</v>
+        <v>3.63</v>
       </c>
       <c r="H28" s="10">
-        <v>0.6</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="I28" s="10">
-        <v>9.6300000000000008</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="J28" s="10">
-        <v>0.53</v>
+        <v>0.27</v>
       </c>
       <c r="K28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B29" s="10">
-        <v>9.66</v>
+        <v>1.97</v>
       </c>
       <c r="C29" s="10">
-        <v>0.65</v>
+        <v>0.38</v>
       </c>
       <c r="D29" s="11">
         <f>(H29-C29)/C29</f>
-        <v>-0.16923076923076921</v>
+        <v>0.18421052631578949</v>
       </c>
       <c r="E29" s="11">
         <f>(J29-C29)/C29</f>
-        <v>-0.12307692307692318</v>
+        <v>-0.21052631578947373</v>
       </c>
       <c r="F29" s="11">
         <f>(J29-H29)/H29</f>
-        <v>5.5555555555555393E-2</v>
+        <v>-0.33333333333333337</v>
       </c>
       <c r="G29" s="10">
-        <v>8.17</v>
+        <v>1.44</v>
       </c>
       <c r="H29" s="10">
-        <v>0.54</v>
+        <v>0.45</v>
       </c>
       <c r="I29" s="10">
-        <v>11.22</v>
+        <v>1.63</v>
       </c>
       <c r="J29" s="10">
-        <v>0.56999999999999995</v>
+        <v>0.3</v>
       </c>
       <c r="K29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="10">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B30" s="10">
-        <v>13.62</v>
+        <v>12.18</v>
       </c>
       <c r="C30" s="10">
-        <v>0.93</v>
+        <v>0.54</v>
       </c>
       <c r="D30" s="11">
         <f>(H30-C30)/C30</f>
-        <v>-5.3763440860215096E-2</v>
+        <v>0.70370370370370372</v>
       </c>
       <c r="E30" s="11">
         <f>(J30-C30)/C30</f>
-        <v>-2.1505376344086041E-2</v>
+        <v>1.0555555555555556</v>
       </c>
       <c r="F30" s="11">
         <f>(J30-H30)/H30</f>
-        <v>3.4090909090909123E-2</v>
+        <v>0.20652173913043484</v>
       </c>
       <c r="G30" s="10">
-        <v>14.58</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="H30" s="10">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
       <c r="I30" s="10">
-        <v>11.61</v>
+        <v>2.65</v>
       </c>
       <c r="J30" s="10">
-        <v>0.91</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="K30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="10">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B31" s="10">
-        <v>5.4</v>
+        <v>1.36</v>
       </c>
       <c r="C31" s="10">
-        <v>0.77</v>
+        <v>0.24</v>
       </c>
       <c r="D31" s="11">
         <f>(H31-C31)/C31</f>
-        <v>1.2987012987012998E-2</v>
+        <v>8.3333333333333412E-2</v>
       </c>
       <c r="E31" s="11">
         <f>(J31-C31)/C31</f>
-        <v>0.23376623376623368</v>
+        <v>-0.1666666666666666</v>
       </c>
       <c r="F31" s="11">
         <f>(J31-H31)/H31</f>
-        <v>0.21794871794871784</v>
+        <v>-0.23076923076923075</v>
       </c>
       <c r="G31" s="10">
-        <v>7.1</v>
+        <v>0.15</v>
       </c>
       <c r="H31" s="10">
-        <v>0.78</v>
+        <v>0.26</v>
       </c>
       <c r="I31" s="10">
-        <v>6.52</v>
+        <v>1.38</v>
       </c>
       <c r="J31" s="10">
-        <v>0.95</v>
+        <v>0.2</v>
       </c>
       <c r="K31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="10">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B32" s="10">
-        <v>4.6900000000000004</v>
+        <v>14.56</v>
       </c>
       <c r="C32" s="10">
-        <v>1.0900000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="D32" s="11">
         <f>(H32-C32)/C32</f>
-        <v>0.12844036697247696</v>
+        <v>0.64948453608247436</v>
       </c>
       <c r="E32" s="11">
         <f>(J32-C32)/C32</f>
-        <v>-9.174311926605512E-2</v>
+        <v>0.46391752577319584</v>
       </c>
       <c r="F32" s="11">
         <f>(J32-H32)/H32</f>
-        <v>-0.1951219512195122</v>
+        <v>-0.1125000000000001</v>
       </c>
       <c r="G32" s="10">
-        <v>4.6399999999999997</v>
+        <v>14.84</v>
       </c>
       <c r="H32" s="10">
-        <v>1.23</v>
+        <v>1.6</v>
       </c>
       <c r="I32" s="10">
-        <v>4.33</v>
+        <v>15.21</v>
       </c>
       <c r="J32" s="10">
-        <v>0.99</v>
+        <v>1.42</v>
       </c>
       <c r="K32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="10">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B33" s="10">
-        <v>37.869999999999997</v>
+        <v>16.53</v>
       </c>
       <c r="C33" s="10">
-        <v>0.52</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="D33" s="11">
         <f>(H33-C33)/C33</f>
-        <v>1.0576923076923077</v>
+        <v>0.36036036036036023</v>
       </c>
       <c r="E33" s="11">
         <f>(J33-C33)/C33</f>
-        <v>0.98076923076923073</v>
+        <v>0.51351351351351338</v>
       </c>
       <c r="F33" s="11">
         <f>(J33-H33)/H33</f>
-        <v>-3.738317757009349E-2</v>
+        <v>0.11258278145695359</v>
       </c>
       <c r="G33" s="10">
-        <v>15.58</v>
+        <v>14.29</v>
       </c>
       <c r="H33" s="10">
-        <v>1.07</v>
+        <v>1.51</v>
       </c>
       <c r="I33" s="10">
-        <v>20.71</v>
+        <v>15.64</v>
       </c>
       <c r="J33" s="10">
-        <v>1.03</v>
+        <v>1.68</v>
       </c>
       <c r="K33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="10">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B34" s="10">
-        <v>12.18</v>
+        <v>21.73</v>
       </c>
       <c r="C34" s="10">
-        <v>0.54</v>
+        <v>2.52</v>
       </c>
       <c r="D34" s="11">
         <f>(H34-C34)/C34</f>
-        <v>0.70370370370370372</v>
+        <v>0.46031746031746035</v>
       </c>
       <c r="E34" s="11">
         <f>(J34-C34)/C34</f>
-        <v>1.0555555555555556</v>
+        <v>0.43650793650793657</v>
       </c>
       <c r="F34" s="11">
         <f>(J34-H34)/H34</f>
-        <v>0.20652173913043484</v>
+        <v>-1.630434782608697E-2</v>
       </c>
       <c r="G34" s="10">
-        <v>2.4900000000000002</v>
+        <v>17.059999999999999</v>
       </c>
       <c r="H34" s="10">
-        <v>0.92</v>
+        <v>3.68</v>
       </c>
       <c r="I34" s="10">
-        <v>2.65</v>
+        <v>13.12</v>
       </c>
       <c r="J34" s="10">
-        <v>1.1100000000000001</v>
+        <v>3.62</v>
       </c>
       <c r="K34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="10">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B35" s="10">
         <v>14.56</v>
       </c>
       <c r="C35" s="10">
-        <v>0.97</v>
+        <v>0.35</v>
       </c>
       <c r="D35" s="11">
         <f>(H35-C35)/C35</f>
-        <v>0.64948453608247436</v>
+        <v>-2.8571428571428439E-2</v>
       </c>
       <c r="E35" s="11">
         <f>(J35-C35)/C35</f>
-        <v>0.46391752577319584</v>
+        <v>-8.5714285714285632E-2</v>
       </c>
       <c r="F35" s="11">
         <f>(J35-H35)/H35</f>
-        <v>-0.1125000000000001</v>
+        <v>-5.8823529411764754E-2</v>
       </c>
       <c r="G35" s="10">
-        <v>14.84</v>
+        <v>7.43</v>
       </c>
       <c r="H35" s="10">
-        <v>1.6</v>
+        <v>0.34</v>
       </c>
       <c r="I35" s="10">
-        <v>15.21</v>
+        <v>10.01</v>
       </c>
       <c r="J35" s="10">
-        <v>1.42</v>
+        <v>0.32</v>
       </c>
       <c r="K35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="10">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B36" s="10">
-        <v>16.53</v>
+        <v>6.2</v>
       </c>
       <c r="C36" s="10">
-        <v>1.1100000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="D36" s="11">
         <f>(H36-C36)/C36</f>
-        <v>0.36036036036036023</v>
+        <v>3.0909090909090913</v>
       </c>
       <c r="E36" s="11">
         <f>(J36-C36)/C36</f>
-        <v>0.51351351351351338</v>
+        <v>0.72727272727272729</v>
       </c>
       <c r="F36" s="11">
         <f>(J36-H36)/H36</f>
-        <v>0.11258278145695359</v>
+        <v>-0.57777777777777783</v>
       </c>
       <c r="G36" s="10">
-        <v>14.29</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="H36" s="10">
-        <v>1.51</v>
+        <v>0.9</v>
       </c>
       <c r="I36" s="10">
-        <v>15.64</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="J36" s="10">
-        <v>1.68</v>
+        <v>0.38</v>
       </c>
       <c r="K36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="10">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B37" s="10">
-        <v>2.88</v>
+        <v>9.66</v>
       </c>
       <c r="C37" s="10">
-        <v>1.9</v>
+        <v>0.65</v>
       </c>
       <c r="D37" s="11">
         <f>(H37-C37)/C37</f>
-        <v>5.2631578947368472E-3</v>
+        <v>-0.16923076923076921</v>
       </c>
       <c r="E37" s="11">
         <f>(J37-C37)/C37</f>
-        <v>-5.78947368421052E-2</v>
+        <v>-0.12307692307692318</v>
       </c>
       <c r="F37" s="11">
         <f>(J37-H37)/H37</f>
-        <v>-6.2827225130889994E-2</v>
+        <v>5.5555555555555393E-2</v>
       </c>
       <c r="G37" s="10">
-        <v>3.05</v>
+        <v>8.17</v>
       </c>
       <c r="H37" s="10">
-        <v>1.91</v>
+        <v>0.54</v>
       </c>
       <c r="I37" s="10">
-        <v>2.82</v>
+        <v>11.22</v>
       </c>
       <c r="J37" s="10">
-        <v>1.79</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="K37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="10">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B38" s="10">
-        <v>15.39</v>
+        <v>11.04</v>
       </c>
       <c r="C38" s="10">
-        <v>1.57</v>
+        <v>0.22</v>
       </c>
       <c r="D38" s="11">
         <f>(H38-C38)/C38</f>
-        <v>0.16560509554140126</v>
+        <v>9.090909090909087E-2</v>
       </c>
       <c r="E38" s="11">
         <f>(J38-C38)/C38</f>
-        <v>0.31210191082802546</v>
+        <v>9.090909090909087E-2</v>
       </c>
       <c r="F38" s="11">
         <f>(J38-H38)/H38</f>
-        <v>0.12568306010928959</v>
+        <v>0</v>
       </c>
       <c r="G38" s="10">
-        <v>17.760000000000002</v>
+        <v>7.78</v>
       </c>
       <c r="H38" s="10">
-        <v>1.83</v>
+        <v>0.24</v>
       </c>
       <c r="I38" s="10">
-        <v>13.25</v>
+        <v>11.55</v>
       </c>
       <c r="J38" s="10">
-        <v>2.06</v>
+        <v>0.24</v>
       </c>
       <c r="K38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="10">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="B39" s="10">
-        <v>60.64</v>
+        <v>2.97</v>
       </c>
       <c r="C39" s="10">
-        <v>2.0099999999999998</v>
+        <v>0.22</v>
       </c>
       <c r="D39" s="11">
         <f>(H39-C39)/C39</f>
-        <v>-5.4726368159203925E-2</v>
+        <v>-0.27272727272727271</v>
       </c>
       <c r="E39" s="11">
         <f>(J39-C39)/C39</f>
-        <v>0.14427860696517417</v>
+        <v>-4.5454545454545497E-2</v>
       </c>
       <c r="F39" s="11">
         <f>(J39-H39)/H39</f>
-        <v>0.21052631578947364</v>
+        <v>0.31249999999999994</v>
       </c>
       <c r="G39" s="10">
-        <v>22.12</v>
+        <v>3.71</v>
       </c>
       <c r="H39" s="10">
-        <v>1.9</v>
+        <v>0.16</v>
       </c>
       <c r="I39" s="10">
-        <v>27.15</v>
+        <v>3.55</v>
       </c>
       <c r="J39" s="10">
-        <v>2.2999999999999998</v>
+        <v>0.21</v>
       </c>
       <c r="K39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="10">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B40" s="10">
-        <v>8.14</v>
+        <v>3.64</v>
       </c>
       <c r="C40" s="10">
-        <v>1.82</v>
+        <v>0.22</v>
       </c>
       <c r="D40" s="11">
         <f>(H40-C40)/C40</f>
-        <v>0.7857142857142857</v>
+        <v>0.18181818181818185</v>
       </c>
       <c r="E40" s="11">
         <f>(J40-C40)/C40</f>
-        <v>0.67582417582417564</v>
+        <v>0.50000000000000011</v>
       </c>
       <c r="F40" s="11">
         <f>(J40-H40)/H40</f>
-        <v>-6.153846153846159E-2</v>
+        <v>0.26923076923076927</v>
       </c>
       <c r="G40" s="10">
-        <v>5.91</v>
+        <v>1.6</v>
       </c>
       <c r="H40" s="10">
-        <v>3.25</v>
+        <v>0.26</v>
       </c>
       <c r="I40" s="10">
-        <v>6.34</v>
+        <v>2.09</v>
       </c>
       <c r="J40" s="10">
-        <v>3.05</v>
+        <v>0.33</v>
       </c>
       <c r="K40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="10">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B41" s="10">
-        <v>21.73</v>
+        <v>5.23</v>
       </c>
       <c r="C41" s="10">
-        <v>2.52</v>
+        <v>0.24</v>
       </c>
       <c r="D41" s="11">
         <f>(H41-C41)/C41</f>
-        <v>0.46031746031746035</v>
+        <v>4.1666666666666706E-2</v>
       </c>
       <c r="E41" s="11">
         <f>(J41-C41)/C41</f>
-        <v>0.43650793650793657</v>
+        <v>0.4166666666666668</v>
       </c>
       <c r="F41" s="11">
         <f>(J41-H41)/H41</f>
-        <v>-1.630434782608697E-2</v>
+        <v>0.3600000000000001</v>
       </c>
       <c r="G41" s="10">
-        <v>17.059999999999999</v>
+        <v>2.08</v>
       </c>
       <c r="H41" s="10">
-        <v>3.68</v>
+        <v>0.25</v>
       </c>
       <c r="I41" s="10">
-        <v>13.12</v>
+        <v>3.99</v>
       </c>
       <c r="J41" s="10">
-        <v>3.62</v>
+        <v>0.34</v>
       </c>
       <c r="K41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:K41" xr:uid="{EAAEE433-6BD3-2F43-9C22-63C4C2C77EFB}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K41">
-      <sortCondition ref="J1:J41"/>
+      <sortCondition ref="A1:A41"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7771,7 +7771,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -7780,7 +7780,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>3</v>
@@ -7801,7 +7801,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -7839,7 +7839,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -7877,7 +7877,7 @@
         <v>16.899999999999999</v>
       </c>
       <c r="K3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -7915,7 +7915,7 @@
         <v>0.65</v>
       </c>
       <c r="K4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -7953,7 +7953,7 @@
         <v>0.01</v>
       </c>
       <c r="K5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -7991,7 +7991,7 @@
         <v>33.090000000000003</v>
       </c>
       <c r="K6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -8029,7 +8029,7 @@
         <v>10.55</v>
       </c>
       <c r="K7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -8067,7 +8067,7 @@
         <v>0.91</v>
       </c>
       <c r="K8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -8105,7 +8105,7 @@
         <v>1.01</v>
       </c>
       <c r="K9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -8143,7 +8143,7 @@
         <v>1.26</v>
       </c>
       <c r="K10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -8181,7 +8181,7 @@
         <v>0.59</v>
       </c>
       <c r="K11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -8219,7 +8219,7 @@
         <v>0.35</v>
       </c>
       <c r="K12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -8257,7 +8257,7 @@
         <v>0.6</v>
       </c>
       <c r="K13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -8295,7 +8295,7 @@
         <v>0.43</v>
       </c>
       <c r="K14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -8333,7 +8333,7 @@
         <v>4.3099999999999996</v>
       </c>
       <c r="K15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -8371,7 +8371,7 @@
         <v>0.44</v>
       </c>
       <c r="K16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -8409,7 +8409,7 @@
         <v>0.78</v>
       </c>
       <c r="K17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -8447,7 +8447,7 @@
         <v>9.48</v>
       </c>
       <c r="K18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -8485,7 +8485,7 @@
         <v>0.49</v>
       </c>
       <c r="K19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -8523,7 +8523,7 @@
         <v>0.53</v>
       </c>
       <c r="K20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -8561,7 +8561,7 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="K21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -8599,7 +8599,7 @@
         <v>0.88</v>
       </c>
       <c r="K22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -8637,7 +8637,7 @@
         <v>0.7</v>
       </c>
       <c r="K23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -8675,7 +8675,7 @@
         <v>1.22</v>
       </c>
       <c r="K24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -8713,7 +8713,7 @@
         <v>7.13</v>
       </c>
       <c r="K25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -8751,7 +8751,7 @@
         <v>1.9</v>
       </c>
       <c r="K26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -8789,7 +8789,7 @@
         <v>1.22</v>
       </c>
       <c r="K27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -8827,7 +8827,7 @@
         <v>5.61</v>
       </c>
       <c r="K28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -8865,7 +8865,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="K29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -8903,7 +8903,7 @@
         <v>0.69</v>
       </c>
       <c r="K30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
@@ -8941,7 +8941,7 @@
         <v>1.57</v>
       </c>
       <c r="K31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
@@ -8979,7 +8979,7 @@
         <v>0.51</v>
       </c>
       <c r="K32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
@@ -9017,7 +9017,7 @@
         <v>0.62</v>
       </c>
       <c r="K33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
@@ -9055,7 +9055,7 @@
         <v>15.99</v>
       </c>
       <c r="K34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
@@ -9093,7 +9093,7 @@
         <v>0.88</v>
       </c>
       <c r="K35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
@@ -9131,7 +9131,7 @@
         <v>0.75</v>
       </c>
       <c r="K36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
@@ -9169,7 +9169,7 @@
         <v>2.8</v>
       </c>
       <c r="K37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
@@ -9207,7 +9207,7 @@
         <v>1.42</v>
       </c>
       <c r="K38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
@@ -9245,7 +9245,7 @@
         <v>0.53</v>
       </c>
       <c r="K39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
@@ -9283,7 +9283,7 @@
         <v>1.96</v>
       </c>
       <c r="K40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
@@ -9321,7 +9321,7 @@
         <v>0.67</v>
       </c>
       <c r="K41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
@@ -9359,7 +9359,7 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="K42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
@@ -9397,7 +9397,7 @@
         <v>1.32</v>
       </c>
       <c r="K43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
@@ -9435,7 +9435,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="K44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
@@ -9473,7 +9473,7 @@
         <v>0.43</v>
       </c>
       <c r="K45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
@@ -9511,7 +9511,7 @@
         <v>0.72</v>
       </c>
       <c r="K46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
@@ -9549,7 +9549,7 @@
         <v>0.42</v>
       </c>
       <c r="K47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
@@ -9587,7 +9587,7 @@
         <v>0.38</v>
       </c>
       <c r="K48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
@@ -9625,7 +9625,7 @@
         <v>6.12</v>
       </c>
       <c r="K49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
@@ -9663,7 +9663,7 @@
         <v>14.65</v>
       </c>
       <c r="K50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
@@ -9701,7 +9701,7 @@
         <v>0.15</v>
       </c>
       <c r="K51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
